--- a/RoadMap/NewMap_Excel/Map4_1.xlsx
+++ b/RoadMap/NewMap_Excel/Map4_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuzu2\Desktop\TeamCreate\デザインしたやつ\マップ\Excelデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334E1CAF-2426-412F-8AA9-EB92CB9497AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166C6F78-E546-4967-BD77-C7E378F3858B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{3F8BD08F-7807-4AA1-8F68-24952F9C5717}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="44">
   <si>
     <t>Line_1</t>
     <phoneticPr fontId="1"/>
@@ -74,10 +74,6 @@
     <t>Line_15</t>
   </si>
   <si>
-    <t>J</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ps</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -94,23 +90,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>J</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VPs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VPr</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>De</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -122,35 +102,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VPs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VPr</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Se</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Me</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Sj</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>E_7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Jr</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -170,14 +126,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VDs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VDr</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ps</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -186,11 +134,47 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VPr</t>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E_7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jr</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ps</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -203,18 +187,6 @@
   </si>
   <si>
     <t>Me</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Gs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Gr</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -256,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,12 +261,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF903030"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -307,7 +273,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,7 +382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -456,7 +422,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
@@ -468,19 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
@@ -495,25 +449,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -892,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7838D8-53A3-4BF4-8B8D-58C4F5180C53}">
   <dimension ref="A1:AH471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z147" sqref="Z147"/>
+    <sheetView tabSelected="1" topLeftCell="A387" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L405" sqref="L405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -980,7 +937,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1285,7 +1242,9 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1355,23 +1314,21 @@
         <v>11</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="14"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="1"/>
@@ -1397,45 +1354,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="1"/>
@@ -1461,19 +1392,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="28"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="14"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="1"/>
@@ -1499,19 +1430,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="28"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="14"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="1"/>
@@ -1537,19 +1474,21 @@
         <v>15</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="14"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="1"/>
@@ -1575,45 +1514,21 @@
         <v>16</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="1"/>
@@ -1645,7 +1560,9 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1792,12 +1709,12 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1881,11 +1798,13 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O24" s="14"/>
+      <c r="M24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="17"/>
+      <c r="O24" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="1"/>
@@ -1921,9 +1840,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="14"/>
       <c r="P25" s="7"/>
@@ -1959,17 +1876,19 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="N26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O26" s="22"/>
+        <v>24</v>
+      </c>
+      <c r="O26" s="18"/>
       <c r="P26" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="1"/>
@@ -2003,16 +1922,14 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N27" s="8"/>
       <c r="O27" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="4"/>
@@ -2045,17 +1962,19 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1" t="s">
+      <c r="I28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="17"/>
+      <c r="K28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O28" s="14"/>
       <c r="P28" s="7"/>
@@ -2089,16 +2008,14 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="14"/>
@@ -2131,17 +2048,19 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
+      <c r="G30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="I30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -2175,16 +2094,14 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2217,17 +2134,19 @@
       <c r="B32" s="7"/>
       <c r="C32" s="4"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2261,16 +2180,14 @@
       <c r="B33" s="7"/>
       <c r="C33" s="4"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2303,17 +2220,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="1" t="s">
+      <c r="C34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2350,11 +2269,11 @@
       <c r="C35" s="4"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2391,11 +2310,11 @@
       <c r="B36" s="7"/>
       <c r="C36" s="4"/>
       <c r="D36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2432,11 +2351,11 @@
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -2473,11 +2392,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="C38" s="19"/>
       <c r="D38" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2601,13 +2520,13 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
-      <c r="O41" s="24"/>
+      <c r="O41" s="20"/>
       <c r="P41" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -2632,8 +2551,8 @@
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="P42" s="25"/>
+      <c r="B42" s="21"/>
+      <c r="P42" s="21"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
@@ -2657,8 +2576,8 @@
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="P43" s="25"/>
+      <c r="B43" s="21"/>
+      <c r="P43" s="21"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -2682,8 +2601,8 @@
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="P44" s="25"/>
+      <c r="B44" s="21"/>
+      <c r="P44" s="21"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
@@ -2707,8 +2626,8 @@
       <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="P45" s="25"/>
+      <c r="B45" s="21"/>
+      <c r="P45" s="21"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
@@ -2732,8 +2651,8 @@
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="P46" s="25"/>
+      <c r="B46" s="21"/>
+      <c r="P46" s="21"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
@@ -2757,8 +2676,8 @@
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="P47" s="25"/>
+      <c r="B47" s="21"/>
+      <c r="P47" s="21"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -2785,7 +2704,7 @@
       <c r="B48" s="7"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2823,11 +2742,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="7"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="1"/>
+      <c r="C49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -2865,9 +2786,7 @@
       <c r="B50" s="7"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2903,17 +2822,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="17"/>
+      <c r="G51" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -2948,16 +2869,14 @@
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F52" s="1"/>
-      <c r="G52" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2993,17 +2912,19 @@
       <c r="B53" s="7"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I53" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="17"/>
+      <c r="I53" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -3038,16 +2959,14 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -3083,17 +3002,19 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K55" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J55" s="17"/>
+      <c r="K55" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -3128,16 +3049,14 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J56" s="1"/>
-      <c r="K56" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -3173,17 +3092,19 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M57" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="N57" s="1"/>
       <c r="O57" s="9"/>
       <c r="P57" s="7"/>
@@ -3218,16 +3139,14 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J58" s="8"/>
       <c r="K58" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L58" s="1"/>
-      <c r="M58" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="9"/>
       <c r="P58" s="7"/>
@@ -3263,17 +3182,19 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K59" s="8"/>
       <c r="L59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O59" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N59" s="17"/>
+      <c r="O59" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -3308,11 +3229,11 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L60" s="8"/>
       <c r="M60" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -3351,11 +3272,11 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M61" s="8"/>
       <c r="N61" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O61" s="9"/>
       <c r="P61" s="7"/>
@@ -3394,11 +3315,11 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N62" s="8"/>
       <c r="O62" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P62" s="7"/>
       <c r="Q62" s="1"/>
@@ -3437,11 +3358,11 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O63" s="24"/>
+        <v>24</v>
+      </c>
+      <c r="O63" s="20"/>
       <c r="P63" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -3542,8 +3463,8 @@
       <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="25"/>
-      <c r="P66" s="25"/>
+      <c r="B66" s="21"/>
+      <c r="P66" s="21"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
@@ -3567,8 +3488,8 @@
       <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="25"/>
-      <c r="P67" s="25"/>
+      <c r="B67" s="21"/>
+      <c r="P67" s="21"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
@@ -3592,8 +3513,8 @@
       <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="25"/>
-      <c r="P68" s="25"/>
+      <c r="B68" s="21"/>
+      <c r="P68" s="21"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
@@ -3617,8 +3538,8 @@
       <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="25"/>
-      <c r="P69" s="25"/>
+      <c r="B69" s="21"/>
+      <c r="P69" s="21"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
@@ -3642,8 +3563,8 @@
       <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="25"/>
-      <c r="P70" s="25"/>
+      <c r="B70" s="21"/>
+      <c r="P70" s="21"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
@@ -3667,8 +3588,8 @@
       <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="25"/>
-      <c r="P71" s="25"/>
+      <c r="B71" s="21"/>
+      <c r="P71" s="21"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
@@ -3692,8 +3613,8 @@
       <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="25"/>
-      <c r="P72" s="25"/>
+      <c r="B72" s="21"/>
+      <c r="P72" s="21"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
@@ -3718,13 +3639,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C73" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
@@ -3772,7 +3693,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O74" s="9"/>
       <c r="P74" s="7"/>
@@ -3810,11 +3731,13 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O75" s="9"/>
+      <c r="M75" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N75" s="17"/>
+      <c r="O75" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="P75" s="7"/>
       <c r="Q75" s="4"/>
       <c r="R75" s="1"/>
@@ -3850,9 +3773,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-      <c r="M76" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="9"/>
       <c r="P76" s="7"/>
@@ -3888,17 +3809,19 @@
       <c r="H77" s="9"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M77" s="1"/>
+      <c r="K77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="N77" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O77" s="24"/>
+        <v>24</v>
+      </c>
+      <c r="O77" s="20"/>
       <c r="P77" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Q77" s="4"/>
       <c r="R77" s="1"/>
@@ -3932,16 +3855,14 @@
       <c r="H78" s="9"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
-      <c r="K78" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N78" s="8"/>
       <c r="O78" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P78" s="7"/>
       <c r="Q78" s="4"/>
@@ -3974,17 +3895,19 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="9"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K79" s="1"/>
+      <c r="I79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J79" s="17"/>
+      <c r="K79" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L79" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M79" s="8"/>
       <c r="N79" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O79" s="9"/>
       <c r="P79" s="7"/>
@@ -4018,16 +3941,14 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L80" s="8"/>
       <c r="M80" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="9"/>
@@ -4060,17 +3981,19 @@
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H81" s="17"/>
+      <c r="I81" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="J81" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K81" s="8"/>
       <c r="L81" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
@@ -4104,16 +4027,14 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J82" s="8"/>
       <c r="K82" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
@@ -4146,17 +4067,19 @@
       <c r="B83" s="7"/>
       <c r="C83" s="4"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" s="1"/>
+      <c r="E83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F83" s="17"/>
+      <c r="G83" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H83" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
@@ -4190,16 +4113,14 @@
       <c r="B84" s="7"/>
       <c r="C84" s="4"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -4232,17 +4153,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="7"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" s="17"/>
+      <c r="E85" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F85" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G85" s="8"/>
       <c r="H85" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -4279,11 +4202,11 @@
       <c r="C86" s="4"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -4320,11 +4243,11 @@
       <c r="B87" s="7"/>
       <c r="C87" s="4"/>
       <c r="D87" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -4361,11 +4284,11 @@
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -4402,11 +4325,11 @@
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C89" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="C89" s="19"/>
       <c r="D89" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -4443,8 +4366,8 @@
       <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="25"/>
-      <c r="P90" s="25"/>
+      <c r="B90" s="21"/>
+      <c r="P90" s="21"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
@@ -4468,8 +4391,8 @@
       <c r="A91" s="5">
         <v>90</v>
       </c>
-      <c r="B91" s="25"/>
-      <c r="P91" s="25"/>
+      <c r="B91" s="21"/>
+      <c r="P91" s="21"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
@@ -4493,8 +4416,8 @@
       <c r="A92" s="5">
         <v>91</v>
       </c>
-      <c r="B92" s="25"/>
-      <c r="P92" s="25"/>
+      <c r="B92" s="21"/>
+      <c r="P92" s="21"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
@@ -4518,8 +4441,8 @@
       <c r="A93" s="5">
         <v>92</v>
       </c>
-      <c r="B93" s="25"/>
-      <c r="P93" s="25"/>
+      <c r="B93" s="21"/>
+      <c r="P93" s="21"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
@@ -4543,8 +4466,8 @@
       <c r="A94" s="5">
         <v>93</v>
       </c>
-      <c r="B94" s="25"/>
-      <c r="P94" s="25"/>
+      <c r="B94" s="21"/>
+      <c r="P94" s="21"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
@@ -4568,8 +4491,8 @@
       <c r="A95" s="5">
         <v>94</v>
       </c>
-      <c r="B95" s="25"/>
-      <c r="P95" s="25"/>
+      <c r="B95" s="21"/>
+      <c r="P95" s="21"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
@@ -4593,8 +4516,18 @@
       <c r="A96" s="5">
         <v>95</v>
       </c>
-      <c r="B96" s="25"/>
-      <c r="P96" s="25"/>
+      <c r="B96" s="21"/>
+      <c r="D96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H96" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" s="20"/>
+      <c r="J96" t="s">
+        <v>16</v>
+      </c>
+      <c r="P96" s="21"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
@@ -4618,8 +4551,15 @@
       <c r="A97" s="5">
         <v>96</v>
       </c>
-      <c r="B97" s="25"/>
-      <c r="P97" s="25"/>
+      <c r="B97" s="21"/>
+      <c r="H97" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" s="20"/>
+      <c r="J97" t="s">
+        <v>16</v>
+      </c>
+      <c r="P97" s="21"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
@@ -4643,15 +4583,15 @@
       <c r="A98" s="5">
         <v>97</v>
       </c>
-      <c r="B98" s="25"/>
+      <c r="B98" s="21"/>
       <c r="H98" t="s">
-        <v>41</v>
-      </c>
-      <c r="I98" s="24"/>
+        <v>28</v>
+      </c>
+      <c r="I98" s="20"/>
       <c r="J98" t="s">
-        <v>42</v>
-      </c>
-      <c r="P98" s="25"/>
+        <v>29</v>
+      </c>
+      <c r="P98" s="21"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
@@ -4675,17 +4615,23 @@
       <c r="A99" s="5">
         <v>98</v>
       </c>
-      <c r="B99" s="25"/>
-      <c r="G99" t="s">
-        <v>41</v>
-      </c>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="24"/>
-      <c r="K99" t="s">
-        <v>42</v>
-      </c>
-      <c r="P99" s="25"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99" s="20"/>
+      <c r="J99" t="s">
+        <v>16</v>
+      </c>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="P99" s="21"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
@@ -4709,17 +4655,23 @@
       <c r="A100" s="5">
         <v>99</v>
       </c>
-      <c r="B100" s="25"/>
-      <c r="G100" t="s">
-        <v>41</v>
-      </c>
-      <c r="H100" s="24"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="24"/>
-      <c r="K100" t="s">
-        <v>42</v>
-      </c>
-      <c r="P100" s="25"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100" s="20"/>
+      <c r="J100" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="P100" s="21"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
@@ -4743,17 +4695,27 @@
       <c r="A101" s="5">
         <v>100</v>
       </c>
-      <c r="B101" s="25"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
       <c r="G101" t="s">
-        <v>41</v>
-      </c>
-      <c r="H101" s="24"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="24"/>
-      <c r="K101" t="s">
-        <v>42</v>
-      </c>
-      <c r="P101" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="H101" s="20"/>
+      <c r="I101" t="s">
+        <v>16</v>
+      </c>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="O101" t="s">
+        <v>40</v>
+      </c>
+      <c r="P101" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
@@ -4777,17 +4739,28 @@
       <c r="A102" s="5">
         <v>101</v>
       </c>
-      <c r="B102" s="25"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
       <c r="G102" t="s">
-        <v>41</v>
-      </c>
-      <c r="H102" s="24"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
-      <c r="K102" t="s">
-        <v>42</v>
-      </c>
-      <c r="P102" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="O102" t="s">
+        <v>40</v>
+      </c>
+      <c r="P102" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
@@ -4811,22 +4784,28 @@
       <c r="A103" s="5">
         <v>102</v>
       </c>
-      <c r="B103" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H103" t="s">
-        <v>41</v>
-      </c>
-      <c r="I103" s="24"/>
-      <c r="J103" s="24"/>
-      <c r="K103" s="24"/>
-      <c r="L103" t="s">
-        <v>42</v>
-      </c>
-      <c r="P103" s="25"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" s="20"/>
+      <c r="I103" t="s">
+        <v>16</v>
+      </c>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="O103" t="s">
+        <v>40</v>
+      </c>
+      <c r="P103" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
@@ -4850,22 +4829,28 @@
       <c r="A104" s="5">
         <v>103</v>
       </c>
-      <c r="B104" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H104" t="s">
-        <v>41</v>
-      </c>
-      <c r="I104" s="24"/>
-      <c r="J104" s="24"/>
-      <c r="K104" s="24"/>
-      <c r="L104" t="s">
-        <v>42</v>
-      </c>
-      <c r="P104" s="25"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" s="20"/>
+      <c r="I104" t="s">
+        <v>16</v>
+      </c>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="O104" t="s">
+        <v>40</v>
+      </c>
+      <c r="P104" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
@@ -4889,22 +4874,28 @@
       <c r="A105" s="5">
         <v>104</v>
       </c>
-      <c r="B105" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H105" t="s">
-        <v>41</v>
-      </c>
-      <c r="I105" s="24"/>
-      <c r="J105" s="24"/>
-      <c r="K105" s="24"/>
-      <c r="L105" t="s">
-        <v>42</v>
-      </c>
-      <c r="P105" s="25"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" t="s">
+        <v>16</v>
+      </c>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="O105" t="s">
+        <v>40</v>
+      </c>
+      <c r="P105" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
@@ -4928,23 +4919,28 @@
       <c r="A106" s="5">
         <v>105</v>
       </c>
-      <c r="B106" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C106" s="24"/>
-      <c r="D106" t="s">
-        <v>42</v>
-      </c>
-      <c r="I106" t="s">
-        <v>41</v>
-      </c>
-      <c r="J106" s="24"/>
-      <c r="K106" s="24"/>
-      <c r="L106" s="24"/>
-      <c r="M106" t="s">
-        <v>42</v>
-      </c>
-      <c r="P106" s="25"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" s="20"/>
+      <c r="H106" t="s">
+        <v>16</v>
+      </c>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" t="s">
+        <v>40</v>
+      </c>
+      <c r="O106" s="20"/>
+      <c r="P106" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
@@ -4968,23 +4964,29 @@
       <c r="A107" s="5">
         <v>106</v>
       </c>
-      <c r="B107" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C107" s="24"/>
-      <c r="D107" t="s">
-        <v>42</v>
-      </c>
-      <c r="I107" t="s">
-        <v>41</v>
-      </c>
-      <c r="J107" s="24"/>
-      <c r="K107" s="24"/>
-      <c r="L107" s="24"/>
-      <c r="M107" t="s">
-        <v>42</v>
-      </c>
-      <c r="P107" s="25"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" s="20"/>
+      <c r="H107" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" t="s">
+        <v>40</v>
+      </c>
+      <c r="O107" s="20"/>
+      <c r="P107" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
@@ -5008,23 +5010,29 @@
       <c r="A108" s="5">
         <v>107</v>
       </c>
-      <c r="B108" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C108" s="24"/>
-      <c r="D108" t="s">
-        <v>42</v>
-      </c>
-      <c r="I108" t="s">
-        <v>41</v>
-      </c>
-      <c r="J108" s="24"/>
-      <c r="K108" s="24"/>
-      <c r="L108" s="24"/>
-      <c r="M108" t="s">
-        <v>42</v>
-      </c>
-      <c r="P108" s="25"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" t="s">
+        <v>15</v>
+      </c>
+      <c r="G108" s="20"/>
+      <c r="H108" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" t="s">
+        <v>40</v>
+      </c>
+      <c r="O108" s="20"/>
+      <c r="P108" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
@@ -5048,24 +5056,29 @@
       <c r="A109" s="5">
         <v>108</v>
       </c>
-      <c r="B109" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="E109" t="s">
-        <v>42</v>
-      </c>
-      <c r="J109" t="s">
-        <v>41</v>
-      </c>
-      <c r="K109" s="24"/>
-      <c r="L109" s="24"/>
-      <c r="M109" s="24"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="20"/>
+      <c r="H109" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
       <c r="N109" t="s">
-        <v>42</v>
-      </c>
-      <c r="P109" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="O109" s="20"/>
+      <c r="P109" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
@@ -5089,24 +5102,29 @@
       <c r="A110" s="5">
         <v>109</v>
       </c>
-      <c r="B110" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
-      <c r="E110" t="s">
-        <v>42</v>
-      </c>
-      <c r="J110" t="s">
-        <v>41</v>
-      </c>
-      <c r="K110" s="24"/>
-      <c r="L110" s="24"/>
-      <c r="M110" s="24"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="20"/>
+      <c r="H110" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
       <c r="N110" t="s">
-        <v>42</v>
-      </c>
-      <c r="P110" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="O110" s="20"/>
+      <c r="P110" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
@@ -5130,24 +5148,32 @@
       <c r="A111" s="5">
         <v>110</v>
       </c>
-      <c r="B111" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D111" s="9"/>
       <c r="E111" t="s">
-        <v>42</v>
-      </c>
-      <c r="J111" t="s">
-        <v>41</v>
-      </c>
-      <c r="K111" s="24"/>
-      <c r="L111" s="24"/>
-      <c r="M111" s="24"/>
-      <c r="N111" t="s">
-        <v>42</v>
-      </c>
-      <c r="P111" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="F111" s="20"/>
+      <c r="G111" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" t="s">
+        <v>40</v>
+      </c>
+      <c r="N111" s="20"/>
+      <c r="O111" s="20"/>
+      <c r="P111" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
@@ -5171,23 +5197,29 @@
       <c r="A112" s="5">
         <v>111</v>
       </c>
-      <c r="B112" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C112" s="24"/>
-      <c r="D112" t="s">
-        <v>42</v>
-      </c>
-      <c r="I112" t="s">
-        <v>41</v>
-      </c>
-      <c r="J112" s="24"/>
-      <c r="K112" s="24"/>
-      <c r="L112" s="24"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" s="20"/>
+      <c r="G112" t="s">
+        <v>16</v>
+      </c>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
       <c r="M112" t="s">
-        <v>42</v>
-      </c>
-      <c r="P112" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="N112" s="20"/>
+      <c r="O112" s="20"/>
+      <c r="P112" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
@@ -5211,23 +5243,29 @@
       <c r="A113" s="5">
         <v>112</v>
       </c>
-      <c r="B113" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C113" s="24"/>
-      <c r="D113" t="s">
-        <v>42</v>
-      </c>
-      <c r="I113" t="s">
-        <v>41</v>
-      </c>
-      <c r="J113" s="24"/>
-      <c r="K113" s="24"/>
-      <c r="L113" s="24"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" s="20"/>
+      <c r="G113" t="s">
+        <v>16</v>
+      </c>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
       <c r="M113" t="s">
-        <v>42</v>
-      </c>
-      <c r="P113" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="N113" s="20"/>
+      <c r="O113" s="20"/>
+      <c r="P113" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
@@ -5251,23 +5289,29 @@
       <c r="A114" s="5">
         <v>113</v>
       </c>
-      <c r="B114" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C114" s="24"/>
-      <c r="D114" t="s">
-        <v>42</v>
-      </c>
-      <c r="I114" t="s">
-        <v>41</v>
-      </c>
-      <c r="J114" s="24"/>
-      <c r="K114" s="24"/>
-      <c r="L114" s="24"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" s="20"/>
+      <c r="G114" t="s">
+        <v>16</v>
+      </c>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
       <c r="M114" t="s">
-        <v>42</v>
-      </c>
-      <c r="P114" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="N114" s="20"/>
+      <c r="O114" s="20"/>
+      <c r="P114" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
@@ -5291,22 +5335,29 @@
       <c r="A115" s="5">
         <v>114</v>
       </c>
-      <c r="B115" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H115" t="s">
-        <v>41</v>
-      </c>
-      <c r="I115" s="24"/>
-      <c r="J115" s="24"/>
-      <c r="K115" s="24"/>
-      <c r="L115" t="s">
-        <v>42</v>
-      </c>
-      <c r="P115" s="25"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="20"/>
+      <c r="G115" t="s">
+        <v>16</v>
+      </c>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" t="s">
+        <v>40</v>
+      </c>
+      <c r="N115" s="20"/>
+      <c r="O115" s="20"/>
+      <c r="P115" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
@@ -5330,22 +5381,28 @@
       <c r="A116" s="5">
         <v>115</v>
       </c>
-      <c r="B116" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C116" s="24" t="s">
-        <v>42</v>
-      </c>
+      <c r="B116" s="7"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="F116" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116" s="20"/>
       <c r="H116" t="s">
-        <v>41</v>
-      </c>
-      <c r="I116" s="24"/>
-      <c r="J116" s="24"/>
-      <c r="K116" s="24"/>
-      <c r="L116" t="s">
-        <v>42</v>
-      </c>
-      <c r="P116" s="25"/>
+        <v>16</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" t="s">
+        <v>40</v>
+      </c>
+      <c r="O116" s="20"/>
+      <c r="P116" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
@@ -5369,22 +5426,29 @@
       <c r="A117" s="5">
         <v>116</v>
       </c>
-      <c r="B117" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C117" s="24" t="s">
-        <v>42</v>
-      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="20"/>
       <c r="H117" t="s">
-        <v>41</v>
-      </c>
-      <c r="I117" s="24"/>
-      <c r="J117" s="24"/>
-      <c r="K117" s="24"/>
-      <c r="L117" t="s">
-        <v>42</v>
-      </c>
-      <c r="P117" s="25"/>
+        <v>16</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" t="s">
+        <v>40</v>
+      </c>
+      <c r="O117" s="20"/>
+      <c r="P117" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
@@ -5408,17 +5472,29 @@
       <c r="A118" s="5">
         <v>117</v>
       </c>
-      <c r="B118" s="25"/>
-      <c r="G118" t="s">
-        <v>41</v>
-      </c>
-      <c r="H118" s="24"/>
-      <c r="I118" s="24"/>
-      <c r="J118" s="24"/>
-      <c r="K118" t="s">
-        <v>42</v>
-      </c>
-      <c r="P118" s="25"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" s="20"/>
+      <c r="H118" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" t="s">
+        <v>40</v>
+      </c>
+      <c r="O118" s="20"/>
+      <c r="P118" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
@@ -5442,17 +5518,29 @@
       <c r="A119" s="5">
         <v>118</v>
       </c>
-      <c r="B119" s="25"/>
-      <c r="G119" t="s">
-        <v>41</v>
-      </c>
-      <c r="H119" s="24"/>
-      <c r="I119" s="24"/>
-      <c r="J119" s="24"/>
-      <c r="K119" t="s">
-        <v>42</v>
-      </c>
-      <c r="P119" s="25"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="20"/>
+      <c r="H119" t="s">
+        <v>16</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" t="s">
+        <v>40</v>
+      </c>
+      <c r="O119" s="20"/>
+      <c r="P119" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
@@ -5476,15 +5564,29 @@
       <c r="A120" s="5">
         <v>119</v>
       </c>
-      <c r="B120" s="25"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" s="20"/>
       <c r="H120" t="s">
-        <v>41</v>
-      </c>
-      <c r="I120" s="24"/>
-      <c r="J120" t="s">
-        <v>42</v>
-      </c>
-      <c r="P120" s="25"/>
+        <v>16</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" t="s">
+        <v>40</v>
+      </c>
+      <c r="O120" s="20"/>
+      <c r="P120" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
@@ -5512,17 +5614,24 @@
       <c r="C121" s="4"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
+      <c r="G121" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" s="20"/>
+      <c r="I121" t="s">
+        <v>16</v>
+      </c>
+      <c r="J121" s="9"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
-      <c r="O121" s="14"/>
-      <c r="P121" s="7"/>
+      <c r="O121" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P121" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q121" s="4"/>
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
@@ -5551,16 +5660,24 @@
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
+      <c r="G122" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" s="20"/>
+      <c r="I122" t="s">
+        <v>16</v>
+      </c>
+      <c r="J122" s="9"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
-      <c r="O122" s="14"/>
-      <c r="P122" s="7"/>
+      <c r="O122" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P122" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q122" s="4"/>
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
@@ -5589,16 +5706,24 @@
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
+      <c r="G123" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" s="20"/>
+      <c r="I123" t="s">
+        <v>16</v>
+      </c>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
-      <c r="O123" s="14"/>
-      <c r="P123" s="7"/>
+      <c r="O123" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P123" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q123" s="4"/>
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
@@ -5627,16 +5752,24 @@
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
-      <c r="G124" s="12"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="12"/>
+      <c r="G124" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" s="20"/>
+      <c r="I124" t="s">
+        <v>16</v>
+      </c>
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
       <c r="L124" s="12"/>
       <c r="M124" s="12"/>
       <c r="N124" s="1"/>
-      <c r="O124" s="14"/>
-      <c r="P124" s="7"/>
+      <c r="O124" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P124" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q124" s="4"/>
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
@@ -5665,16 +5798,24 @@
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
+      <c r="G125" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" s="20"/>
+      <c r="I125" t="s">
+        <v>16</v>
+      </c>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
-      <c r="O125" s="14"/>
-      <c r="P125" s="7"/>
+      <c r="O125" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P125" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="Q125" s="4"/>
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
@@ -5701,12 +5842,17 @@
       <c r="B126" s="7"/>
       <c r="C126" s="4"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
+      <c r="E126" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
+      <c r="H126" t="s">
+        <v>15</v>
+      </c>
+      <c r="I126" s="20"/>
+      <c r="J126" t="s">
+        <v>16</v>
+      </c>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
@@ -5742,9 +5888,13 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
+      <c r="H127" t="s">
+        <v>15</v>
+      </c>
+      <c r="I127" s="20"/>
+      <c r="J127" t="s">
+        <v>16</v>
+      </c>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
@@ -5775,27 +5925,23 @@
         <v>127</v>
       </c>
       <c r="B128" s="7"/>
-      <c r="C128" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-      <c r="G128" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
-      <c r="K128" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G128" s="1"/>
+      <c r="H128" t="s">
+        <v>15</v>
+      </c>
+      <c r="I128" s="20"/>
+      <c r="J128" t="s">
+        <v>16</v>
+      </c>
+      <c r="K128" s="1"/>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
-      <c r="O128" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="O128" s="1"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="4"/>
       <c r="R128" s="1"/>
@@ -5821,25 +5967,23 @@
         <v>128</v>
       </c>
       <c r="B129" s="7"/>
-      <c r="C129" s="17"/>
+      <c r="C129" s="4"/>
       <c r="D129" s="1"/>
-      <c r="E129" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="E129" s="1"/>
       <c r="F129" s="1"/>
-      <c r="G129" s="18"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J129" s="1"/>
-      <c r="K129" s="18"/>
+      <c r="G129" s="1"/>
+      <c r="H129" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129" s="20"/>
+      <c r="J129" t="s">
+        <v>16</v>
+      </c>
+      <c r="K129" s="1"/>
       <c r="L129" s="1"/>
-      <c r="M129" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="M129" s="1"/>
       <c r="N129" s="1"/>
-      <c r="O129" s="19"/>
+      <c r="O129" s="14"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="4"/>
       <c r="R129" s="1"/>
@@ -5865,19 +6009,23 @@
         <v>129</v>
       </c>
       <c r="B130" s="7"/>
-      <c r="C130" s="17"/>
+      <c r="C130" s="4"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="18"/>
+      <c r="G130" s="1"/>
+      <c r="H130" t="s">
+        <v>15</v>
+      </c>
+      <c r="I130" s="20"/>
+      <c r="J130" t="s">
+        <v>16</v>
+      </c>
+      <c r="K130" s="1"/>
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
-      <c r="O130" s="19"/>
+      <c r="O130" s="14"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="4"/>
       <c r="R130" s="1"/>
@@ -5902,20 +6050,27 @@
       <c r="A131" s="5">
         <v>130</v>
       </c>
-      <c r="B131" s="7"/>
-      <c r="C131" s="17"/>
+      <c r="B131" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
-      <c r="K131" s="18"/>
+      <c r="G131" s="1"/>
+      <c r="I131" t="s">
+        <v>15</v>
+      </c>
+      <c r="J131" s="20"/>
+      <c r="K131" t="s">
+        <v>16</v>
+      </c>
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
-      <c r="O131" s="19"/>
+      <c r="O131" s="14"/>
       <c r="P131" s="7"/>
       <c r="Q131" s="4"/>
       <c r="R131" s="1"/>
@@ -5940,20 +6095,28 @@
       <c r="A132" s="5">
         <v>131</v>
       </c>
-      <c r="B132" s="7"/>
-      <c r="C132" s="17"/>
+      <c r="B132" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-      <c r="G132" s="18"/>
+      <c r="G132" s="1"/>
       <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="18"/>
+      <c r="I132" t="s">
+        <v>15</v>
+      </c>
+      <c r="J132" s="20"/>
+      <c r="K132" t="s">
+        <v>16</v>
+      </c>
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
-      <c r="O132" s="19"/>
+      <c r="O132" s="14"/>
       <c r="P132" s="7"/>
       <c r="Q132" s="4"/>
       <c r="R132" s="1"/>
@@ -5978,20 +6141,28 @@
       <c r="A133" s="5">
         <v>132</v>
       </c>
-      <c r="B133" s="7"/>
-      <c r="C133" s="17"/>
+      <c r="B133" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-      <c r="G133" s="18"/>
+      <c r="G133" s="1"/>
       <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="18"/>
+      <c r="I133" t="s">
+        <v>15</v>
+      </c>
+      <c r="J133" s="20"/>
+      <c r="K133" t="s">
+        <v>16</v>
+      </c>
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
-      <c r="O133" s="19"/>
+      <c r="O133" s="14"/>
       <c r="P133" s="7"/>
       <c r="Q133" s="4"/>
       <c r="R133" s="1"/>
@@ -6016,20 +6187,28 @@
       <c r="A134" s="5">
         <v>133</v>
       </c>
-      <c r="B134" s="7"/>
-      <c r="C134" s="17"/>
+      <c r="B134" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-      <c r="G134" s="18"/>
+      <c r="G134" s="1"/>
       <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-      <c r="K134" s="18"/>
+      <c r="I134" t="s">
+        <v>15</v>
+      </c>
+      <c r="J134" s="20"/>
+      <c r="K134" t="s">
+        <v>16</v>
+      </c>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
-      <c r="O134" s="19"/>
+      <c r="O134" s="14"/>
       <c r="P134" s="7"/>
       <c r="Q134" s="4"/>
       <c r="R134" s="1"/>
@@ -6054,20 +6233,28 @@
       <c r="A135" s="5">
         <v>134</v>
       </c>
-      <c r="B135" s="7"/>
-      <c r="C135" s="17"/>
+      <c r="B135" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
-      <c r="G135" s="18"/>
+      <c r="G135" s="1"/>
       <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="18"/>
+      <c r="I135" t="s">
+        <v>15</v>
+      </c>
+      <c r="J135" s="20"/>
+      <c r="K135" t="s">
+        <v>16</v>
+      </c>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
-      <c r="O135" s="19"/>
+      <c r="O135" s="14"/>
       <c r="P135" s="7"/>
       <c r="Q135" s="4"/>
       <c r="R135" s="1"/>
@@ -6092,11 +6279,31 @@
       <c r="A136" s="5">
         <v>135</v>
       </c>
-      <c r="B136" s="7"/>
-      <c r="C136" s="17"/>
-      <c r="G136" s="18"/>
-      <c r="K136" s="18"/>
-      <c r="O136" s="19"/>
+      <c r="B136" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136" s="19"/>
+      <c r="D136" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H136" s="9"/>
+      <c r="J136" t="s">
+        <v>15</v>
+      </c>
+      <c r="K136" s="20"/>
+      <c r="L136" t="s">
+        <v>16</v>
+      </c>
+      <c r="M136" s="9"/>
+      <c r="N136" s="9"/>
+      <c r="O136" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="P136" s="7"/>
       <c r="Q136" s="4"/>
       <c r="R136" s="1"/>
@@ -6121,32 +6328,28 @@
       <c r="A137" s="5">
         <v>136</v>
       </c>
-      <c r="B137" s="7"/>
-      <c r="C137" s="17"/>
-      <c r="D137" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E137" s="21"/>
-      <c r="F137" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G137" s="18"/>
-      <c r="H137" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I137" s="21"/>
-      <c r="J137" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K137" s="18"/>
-      <c r="L137" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M137" s="21"/>
-      <c r="N137" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O137" s="19"/>
+      <c r="B137" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C137" s="19"/>
+      <c r="D137" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" t="s">
+        <v>15</v>
+      </c>
+      <c r="K137" s="20"/>
+      <c r="L137" t="s">
+        <v>16</v>
+      </c>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="14"/>
       <c r="P137" s="7"/>
       <c r="Q137" s="4"/>
       <c r="R137" s="1"/>
@@ -6171,22 +6374,28 @@
       <c r="A138" s="5">
         <v>137</v>
       </c>
-      <c r="B138" s="7"/>
-      <c r="C138" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="B138" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C138" s="8"/>
+      <c r="D138" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
-      <c r="K138" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O138" s="14" t="s">
-        <v>43</v>
-      </c>
+      <c r="J138" t="s">
+        <v>15</v>
+      </c>
+      <c r="K138" s="20"/>
+      <c r="L138" t="s">
+        <v>16</v>
+      </c>
+      <c r="M138" s="9"/>
+      <c r="N138" s="9"/>
+      <c r="O138" s="14"/>
       <c r="P138" s="7"/>
       <c r="Q138" s="4"/>
       <c r="R138" s="1"/>
@@ -6212,24 +6421,28 @@
         <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C139" s="23"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="8"/>
-      <c r="K139" s="8"/>
-      <c r="L139" s="24"/>
-      <c r="M139" s="24"/>
-      <c r="N139" s="24"/>
-      <c r="O139" s="22"/>
-      <c r="P139" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C139" s="19"/>
+      <c r="D139" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" t="s">
+        <v>15</v>
+      </c>
+      <c r="K139" s="20"/>
+      <c r="L139" t="s">
+        <v>16</v>
+      </c>
+      <c r="M139" s="9"/>
+      <c r="N139" s="9"/>
+      <c r="O139" s="14"/>
+      <c r="P139" s="7"/>
       <c r="Q139" s="4"/>
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
@@ -6253,40 +6466,28 @@
       <c r="A140" s="5">
         <v>139</v>
       </c>
-      <c r="B140" s="7"/>
-      <c r="C140" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B140" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C140" s="8"/>
+      <c r="D140" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
-      <c r="K140" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L140" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M140" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N140" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O140" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="J140" t="s">
+        <v>15</v>
+      </c>
+      <c r="K140" s="20"/>
+      <c r="L140" t="s">
+        <v>16</v>
+      </c>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
       <c r="P140" s="7"/>
       <c r="Q140" s="4"/>
       <c r="R140" s="1"/>
@@ -6311,20 +6512,27 @@
       <c r="A141" s="5">
         <v>140</v>
       </c>
-      <c r="B141" s="7"/>
-      <c r="C141" s="17"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="18"/>
-      <c r="G141" s="18"/>
+      <c r="B141" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C141" s="19"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
-      <c r="K141" s="18"/>
-      <c r="L141" s="18"/>
-      <c r="M141" s="18"/>
-      <c r="N141" s="18"/>
-      <c r="O141" s="19"/>
+      <c r="K141" t="s">
+        <v>15</v>
+      </c>
+      <c r="L141" s="20"/>
+      <c r="M141" t="s">
+        <v>16</v>
+      </c>
+      <c r="N141" s="1"/>
+      <c r="O141" s="14"/>
       <c r="P141" s="7"/>
       <c r="Q141" s="4"/>
       <c r="R141" s="1"/>
@@ -6349,20 +6557,28 @@
       <c r="A142" s="5">
         <v>141</v>
       </c>
-      <c r="B142" s="7"/>
-      <c r="C142" s="17"/>
-      <c r="D142" s="18"/>
-      <c r="E142" s="18"/>
-      <c r="F142" s="20"/>
-      <c r="G142" s="18"/>
+      <c r="B142" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C142" s="19"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F142" s="9"/>
+      <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
-      <c r="K142" s="18"/>
-      <c r="L142" s="18"/>
-      <c r="M142" s="18"/>
-      <c r="N142" s="18"/>
-      <c r="O142" s="19"/>
+      <c r="K142" t="s">
+        <v>15</v>
+      </c>
+      <c r="L142" s="20"/>
+      <c r="M142" t="s">
+        <v>16</v>
+      </c>
+      <c r="N142" s="1"/>
+      <c r="O142" s="14"/>
       <c r="P142" s="7"/>
       <c r="Q142" s="4"/>
       <c r="R142" s="1"/>
@@ -6387,20 +6603,28 @@
       <c r="A143" s="5">
         <v>142</v>
       </c>
-      <c r="B143" s="7"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="18"/>
-      <c r="E143" s="18"/>
-      <c r="F143" s="18"/>
-      <c r="G143" s="18"/>
+      <c r="B143" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C143" s="19"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
-      <c r="K143" s="18"/>
-      <c r="L143" s="18"/>
-      <c r="M143" s="18"/>
-      <c r="N143" s="18"/>
-      <c r="O143" s="19"/>
+      <c r="K143" t="s">
+        <v>15</v>
+      </c>
+      <c r="L143" s="20"/>
+      <c r="M143" t="s">
+        <v>16</v>
+      </c>
+      <c r="N143" s="1"/>
+      <c r="O143" s="14"/>
       <c r="P143" s="7"/>
       <c r="Q143" s="4"/>
       <c r="R143" s="1"/>
@@ -6425,20 +6649,28 @@
       <c r="A144" s="5">
         <v>143</v>
       </c>
-      <c r="B144" s="7"/>
-      <c r="C144" s="17"/>
-      <c r="D144" s="18"/>
-      <c r="E144" s="18"/>
-      <c r="F144" s="18"/>
-      <c r="G144" s="18"/>
+      <c r="B144" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C144" s="19"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
-      <c r="K144" s="18"/>
-      <c r="L144" s="18"/>
-      <c r="M144" s="18"/>
-      <c r="N144" s="18"/>
-      <c r="O144" s="19"/>
+      <c r="K144" t="s">
+        <v>15</v>
+      </c>
+      <c r="L144" s="20"/>
+      <c r="M144" t="s">
+        <v>16</v>
+      </c>
+      <c r="N144" s="1"/>
+      <c r="O144" s="14"/>
       <c r="P144" s="7"/>
       <c r="Q144" s="4"/>
       <c r="R144" s="1"/>
@@ -6463,20 +6695,28 @@
       <c r="A145" s="5">
         <v>144</v>
       </c>
-      <c r="B145" s="7"/>
-      <c r="C145" s="17"/>
-      <c r="D145" s="18"/>
-      <c r="E145" s="18"/>
-      <c r="F145" s="18"/>
-      <c r="G145" s="18"/>
+      <c r="B145" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C145" s="19"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
-      <c r="K145" s="18"/>
-      <c r="L145" s="18"/>
-      <c r="M145" s="18"/>
-      <c r="N145" s="18"/>
-      <c r="O145" s="19"/>
+      <c r="K145" t="s">
+        <v>15</v>
+      </c>
+      <c r="L145" s="20"/>
+      <c r="M145" t="s">
+        <v>16</v>
+      </c>
+      <c r="N145" s="1"/>
+      <c r="O145" s="14"/>
       <c r="P145" s="7"/>
       <c r="Q145" s="4"/>
       <c r="R145" s="1"/>
@@ -6501,20 +6741,27 @@
       <c r="A146" s="5">
         <v>145</v>
       </c>
-      <c r="B146" s="7"/>
-      <c r="C146" s="17"/>
-      <c r="D146" s="18"/>
-      <c r="E146" s="18"/>
-      <c r="F146" s="18"/>
-      <c r="G146" s="18"/>
+      <c r="B146" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C146" s="19"/>
+      <c r="D146" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
-      <c r="K146" s="18"/>
-      <c r="L146" s="18"/>
-      <c r="M146" s="18"/>
-      <c r="N146" s="18"/>
-      <c r="O146" s="19"/>
+      <c r="J146" t="s">
+        <v>15</v>
+      </c>
+      <c r="K146" s="20"/>
+      <c r="L146" t="s">
+        <v>16</v>
+      </c>
+      <c r="N146" s="1"/>
+      <c r="O146" s="14"/>
       <c r="P146" s="7"/>
       <c r="Q146" s="4"/>
       <c r="R146" s="1"/>
@@ -6539,20 +6786,28 @@
       <c r="A147" s="5">
         <v>146</v>
       </c>
-      <c r="B147" s="7"/>
-      <c r="C147" s="17"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="18"/>
-      <c r="G147" s="18"/>
+      <c r="B147" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C147" s="19"/>
+      <c r="D147" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
-      <c r="K147" s="18"/>
-      <c r="L147" s="18"/>
-      <c r="M147" s="18"/>
-      <c r="N147" s="18"/>
-      <c r="O147" s="19"/>
+      <c r="J147" t="s">
+        <v>15</v>
+      </c>
+      <c r="K147" s="20"/>
+      <c r="L147" t="s">
+        <v>16</v>
+      </c>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="14"/>
       <c r="P147" s="7"/>
       <c r="Q147" s="4"/>
       <c r="R147" s="1"/>
@@ -6577,17 +6832,28 @@
       <c r="A148" s="5">
         <v>147</v>
       </c>
-      <c r="B148" s="7"/>
-      <c r="C148" s="17"/>
-      <c r="D148" s="18"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="18"/>
-      <c r="G148" s="18"/>
-      <c r="K148" s="18"/>
-      <c r="L148" s="18"/>
-      <c r="M148" s="18"/>
-      <c r="N148" s="18"/>
-      <c r="O148" s="19"/>
+      <c r="B148" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C148" s="19"/>
+      <c r="D148" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="9"/>
+      <c r="I148" s="9"/>
+      <c r="J148" t="s">
+        <v>15</v>
+      </c>
+      <c r="K148" s="20"/>
+      <c r="L148" t="s">
+        <v>16</v>
+      </c>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="14"/>
       <c r="P148" s="7"/>
       <c r="Q148" s="4"/>
       <c r="R148" s="1"/>
@@ -6612,22 +6878,28 @@
       <c r="A149" s="5">
         <v>148</v>
       </c>
-      <c r="B149" s="7"/>
-      <c r="C149" s="17"/>
-      <c r="D149" s="18"/>
-      <c r="E149" s="18"/>
-      <c r="F149" s="18"/>
-      <c r="G149" s="18"/>
+      <c r="B149" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C149" s="19"/>
+      <c r="D149" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
       <c r="H149" s="1"/>
-      <c r="I149" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J149" s="1"/>
-      <c r="K149" s="18"/>
-      <c r="L149" s="18"/>
-      <c r="M149" s="18"/>
-      <c r="N149" s="18"/>
-      <c r="O149" s="19"/>
+      <c r="I149" s="1"/>
+      <c r="J149" t="s">
+        <v>15</v>
+      </c>
+      <c r="K149" s="20"/>
+      <c r="L149" t="s">
+        <v>16</v>
+      </c>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="14"/>
       <c r="P149" s="7"/>
       <c r="Q149" s="4"/>
       <c r="R149" s="1"/>
@@ -6652,24 +6924,28 @@
       <c r="A150" s="5">
         <v>149</v>
       </c>
-      <c r="B150" s="7"/>
-      <c r="C150" s="17"/>
-      <c r="D150" s="18"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="18"/>
-      <c r="G150" s="18"/>
-      <c r="H150" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I150" s="21"/>
-      <c r="J150" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K150" s="18"/>
-      <c r="L150" s="18"/>
-      <c r="M150" s="18"/>
-      <c r="N150" s="18"/>
-      <c r="O150" s="19"/>
+      <c r="B150" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C150" s="19"/>
+      <c r="D150" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" t="s">
+        <v>15</v>
+      </c>
+      <c r="K150" s="20"/>
+      <c r="L150" t="s">
+        <v>16</v>
+      </c>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="14"/>
       <c r="P150" s="7"/>
       <c r="Q150" s="4"/>
       <c r="R150" s="1"/>
@@ -6694,37 +6970,29 @@
       <c r="A151" s="5">
         <v>150</v>
       </c>
-      <c r="B151" s="7"/>
-      <c r="C151" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="B151" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
       <c r="F151" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K151" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L151" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M151" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N151" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O151" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G151" s="1"/>
+      <c r="H151" s="9"/>
+      <c r="I151" t="s">
+        <v>15</v>
+      </c>
+      <c r="J151" s="20"/>
+      <c r="K151" t="s">
+        <v>16</v>
+      </c>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
       <c r="P151" s="7"/>
       <c r="Q151" s="4"/>
       <c r="R151" s="1"/>
@@ -6750,24 +7018,28 @@
         <v>151</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C152" s="23"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8"/>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
-      <c r="H152" s="8"/>
-      <c r="I152" s="8"/>
-      <c r="J152" s="8"/>
-      <c r="K152" s="8"/>
-      <c r="L152" s="8"/>
-      <c r="M152" s="8"/>
-      <c r="N152" s="8"/>
-      <c r="O152" s="22"/>
-      <c r="P152" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" t="s">
+        <v>15</v>
+      </c>
+      <c r="J152" s="20"/>
+      <c r="K152" t="s">
+        <v>16</v>
+      </c>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="14"/>
+      <c r="P152" s="7"/>
       <c r="Q152" s="4"/>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
@@ -6791,34 +7063,28 @@
       <c r="A153" s="5">
         <v>152</v>
       </c>
-      <c r="B153" s="7"/>
-      <c r="C153" s="1" t="s">
-        <v>22</v>
+      <c r="B153" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
-      <c r="G153" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K153" s="1" t="s">
-        <v>22</v>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" t="s">
+        <v>15</v>
+      </c>
+      <c r="J153" s="20"/>
+      <c r="K153" t="s">
+        <v>16</v>
       </c>
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
-      <c r="O153" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="O153" s="1"/>
       <c r="P153" s="7"/>
       <c r="Q153" s="4"/>
       <c r="R153" s="1"/>
@@ -6843,14 +7109,28 @@
       <c r="A154" s="5">
         <v>153</v>
       </c>
-      <c r="B154" s="7"/>
-      <c r="C154" s="17"/>
-      <c r="G154" s="18"/>
-      <c r="H154" s="20"/>
-      <c r="I154" s="20"/>
+      <c r="B154" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="9"/>
+      <c r="I154" t="s">
+        <v>15</v>
+      </c>
       <c r="J154" s="20"/>
-      <c r="K154" s="18"/>
-      <c r="O154" s="19"/>
+      <c r="K154" t="s">
+        <v>16</v>
+      </c>
+      <c r="L154" s="9"/>
+      <c r="M154" s="9"/>
+      <c r="N154" s="9"/>
+      <c r="O154" s="14"/>
       <c r="P154" s="7"/>
       <c r="Q154" s="4"/>
       <c r="R154" s="1"/>
@@ -6875,20 +7155,28 @@
       <c r="A155" s="5">
         <v>154</v>
       </c>
-      <c r="B155" s="7"/>
-      <c r="C155" s="17"/>
+      <c r="B155" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
-      <c r="G155" s="18"/>
-      <c r="H155" s="18"/>
-      <c r="I155" s="18"/>
-      <c r="J155" s="18"/>
-      <c r="K155" s="18"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" t="s">
+        <v>15</v>
+      </c>
+      <c r="J155" s="20"/>
+      <c r="K155" t="s">
+        <v>16</v>
+      </c>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
-      <c r="O155" s="19"/>
+      <c r="O155" s="14"/>
       <c r="P155" s="7"/>
       <c r="Q155" s="4"/>
       <c r="R155" s="1"/>
@@ -6914,19 +7202,22 @@
         <v>155</v>
       </c>
       <c r="B156" s="7"/>
-      <c r="C156" s="17"/>
+      <c r="C156" s="4"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
-      <c r="G156" s="18"/>
-      <c r="H156" s="18"/>
-      <c r="I156" s="18"/>
-      <c r="J156" s="18"/>
-      <c r="K156" s="18"/>
+      <c r="G156" s="1"/>
+      <c r="H156" t="s">
+        <v>15</v>
+      </c>
+      <c r="I156" s="20"/>
+      <c r="J156" t="s">
+        <v>16</v>
+      </c>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
-      <c r="O156" s="19"/>
+      <c r="O156" s="14"/>
       <c r="P156" s="7"/>
       <c r="Q156" s="4"/>
       <c r="R156" s="1"/>
@@ -6952,19 +7243,23 @@
         <v>156</v>
       </c>
       <c r="B157" s="7"/>
-      <c r="C157" s="17"/>
+      <c r="C157" s="4"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
-      <c r="G157" s="18"/>
-      <c r="H157" s="18"/>
-      <c r="I157" s="18"/>
-      <c r="J157" s="18"/>
-      <c r="K157" s="18"/>
+      <c r="G157" s="1"/>
+      <c r="H157" t="s">
+        <v>15</v>
+      </c>
+      <c r="I157" s="20"/>
+      <c r="J157" t="s">
+        <v>16</v>
+      </c>
+      <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
-      <c r="O157" s="19"/>
+      <c r="O157" s="14"/>
       <c r="P157" s="7"/>
       <c r="Q157" s="4"/>
       <c r="R157" s="1"/>
@@ -6990,19 +7285,23 @@
         <v>157</v>
       </c>
       <c r="B158" s="7"/>
-      <c r="C158" s="17"/>
+      <c r="C158" s="4"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
-      <c r="G158" s="18"/>
-      <c r="H158" s="18"/>
-      <c r="I158" s="18"/>
-      <c r="J158" s="18"/>
-      <c r="K158" s="18"/>
+      <c r="G158" s="1"/>
+      <c r="H158" t="s">
+        <v>15</v>
+      </c>
+      <c r="I158" s="20"/>
+      <c r="J158" t="s">
+        <v>16</v>
+      </c>
+      <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
-      <c r="O158" s="19"/>
+      <c r="O158" s="14"/>
       <c r="P158" s="7"/>
       <c r="Q158" s="4"/>
       <c r="R158" s="1"/>
@@ -7028,19 +7327,23 @@
         <v>158</v>
       </c>
       <c r="B159" s="7"/>
-      <c r="C159" s="17"/>
+      <c r="C159" s="4"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
-      <c r="G159" s="18"/>
-      <c r="H159" s="18"/>
-      <c r="I159" s="18"/>
-      <c r="J159" s="18"/>
-      <c r="K159" s="18"/>
+      <c r="G159" s="1"/>
+      <c r="H159" t="s">
+        <v>15</v>
+      </c>
+      <c r="I159" s="20"/>
+      <c r="J159" t="s">
+        <v>16</v>
+      </c>
+      <c r="K159" s="1"/>
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
-      <c r="O159" s="19"/>
+      <c r="O159" s="14"/>
       <c r="P159" s="7"/>
       <c r="Q159" s="4"/>
       <c r="R159" s="1"/>
@@ -7066,19 +7369,23 @@
         <v>159</v>
       </c>
       <c r="B160" s="7"/>
-      <c r="C160" s="17"/>
+      <c r="C160" s="4"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
-      <c r="G160" s="18"/>
-      <c r="H160" s="18"/>
-      <c r="I160" s="18"/>
-      <c r="J160" s="18"/>
-      <c r="K160" s="18"/>
+      <c r="G160" s="1"/>
+      <c r="H160" t="s">
+        <v>15</v>
+      </c>
+      <c r="I160" s="20"/>
+      <c r="J160" t="s">
+        <v>16</v>
+      </c>
+      <c r="K160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
-      <c r="O160" s="19"/>
+      <c r="O160" s="14"/>
       <c r="P160" s="7"/>
       <c r="Q160" s="4"/>
       <c r="R160" s="1"/>
@@ -7104,13 +7411,19 @@
         <v>160</v>
       </c>
       <c r="B161" s="7"/>
-      <c r="C161" s="17"/>
-      <c r="G161" s="18"/>
-      <c r="H161" s="18"/>
-      <c r="I161" s="18"/>
-      <c r="J161" s="18"/>
-      <c r="K161" s="18"/>
-      <c r="O161" s="19"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="9"/>
+      <c r="M161" s="9"/>
+      <c r="N161" s="9"/>
+      <c r="O161" s="14"/>
       <c r="P161" s="7"/>
       <c r="Q161" s="4"/>
       <c r="R161" s="1"/>
@@ -7136,23 +7449,19 @@
         <v>161</v>
       </c>
       <c r="B162" s="7"/>
-      <c r="C162" s="17"/>
+      <c r="C162" s="4"/>
       <c r="D162" s="1"/>
-      <c r="E162" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="E162" s="1"/>
       <c r="F162" s="1"/>
-      <c r="G162" s="18"/>
-      <c r="H162" s="18"/>
-      <c r="I162" s="18"/>
-      <c r="J162" s="18"/>
-      <c r="K162" s="18"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
       <c r="L162" s="1"/>
-      <c r="M162" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="M162" s="1"/>
       <c r="N162" s="1"/>
-      <c r="O162" s="19"/>
+      <c r="O162" s="14"/>
       <c r="P162" s="7"/>
       <c r="Q162" s="4"/>
       <c r="R162" s="1"/>
@@ -7178,27 +7487,19 @@
         <v>162</v>
       </c>
       <c r="B163" s="7"/>
-      <c r="C163" s="17"/>
-      <c r="D163" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E163" s="21"/>
-      <c r="F163" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G163" s="18"/>
-      <c r="H163" s="18"/>
-      <c r="I163" s="18"/>
-      <c r="J163" s="18"/>
-      <c r="K163" s="18"/>
-      <c r="L163" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M163" s="21"/>
-      <c r="N163" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O163" s="19"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="14"/>
       <c r="P163" s="7"/>
       <c r="Q163" s="4"/>
       <c r="R163" s="1"/>
@@ -7224,33 +7525,19 @@
         <v>163</v>
       </c>
       <c r="B164" s="7"/>
-      <c r="C164" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
-      <c r="G164" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I164" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J164" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K164" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
-      <c r="O164" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="O164" s="1"/>
       <c r="P164" s="7"/>
       <c r="Q164" s="4"/>
       <c r="R164" s="1"/>
@@ -7275,25 +7562,21 @@
       <c r="A165" s="5">
         <v>164</v>
       </c>
-      <c r="B165" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C165" s="23"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="8"/>
-      <c r="J165" s="8"/>
-      <c r="K165" s="8"/>
-      <c r="L165" s="8"/>
-      <c r="M165" s="8"/>
-      <c r="N165" s="8"/>
-      <c r="O165" s="22"/>
-      <c r="P165" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="B165" s="7"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="O165" s="14"/>
+      <c r="P165" s="7"/>
       <c r="Q165" s="4"/>
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
@@ -7318,39 +7601,19 @@
         <v>165</v>
       </c>
       <c r="B166" s="7"/>
-      <c r="C166" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
-      <c r="K166" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L166" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M166" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N166" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O166" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
       <c r="P166" s="7"/>
       <c r="Q166" s="4"/>
       <c r="R166" s="1"/>
@@ -7376,19 +7639,31 @@
         <v>166</v>
       </c>
       <c r="B167" s="7"/>
-      <c r="C167" s="17"/>
-      <c r="D167" s="18"/>
-      <c r="E167" s="18"/>
-      <c r="F167" s="18"/>
-      <c r="G167" s="18"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
-      <c r="K167" s="18"/>
-      <c r="L167" s="18"/>
-      <c r="M167" s="18"/>
-      <c r="N167" s="18"/>
-      <c r="O167" s="19"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E167" s="17"/>
+      <c r="F167" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I167" s="17"/>
+      <c r="J167" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M167" s="17"/>
+      <c r="N167" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O167" s="14"/>
       <c r="P167" s="7"/>
       <c r="Q167" s="4"/>
       <c r="R167" s="1"/>
@@ -7413,21 +7688,23 @@
       <c r="A168" s="5">
         <v>167</v>
       </c>
-      <c r="B168" s="7"/>
-      <c r="C168" s="17"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="18"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
-      <c r="K168" s="18"/>
-      <c r="L168" s="18"/>
-      <c r="M168" s="18"/>
-      <c r="N168" s="18"/>
-      <c r="O168" s="19"/>
-      <c r="P168" s="7"/>
+      <c r="B168" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C168" s="26"/>
+      <c r="D168" s="27"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="27"/>
+      <c r="G168" s="27"/>
+      <c r="H168" s="27"/>
+      <c r="I168" s="27"/>
+      <c r="J168" s="27"/>
+      <c r="K168" s="27"/>
+      <c r="L168" s="27"/>
+      <c r="M168" s="27"/>
+      <c r="N168" s="27"/>
+      <c r="O168" s="28"/>
+      <c r="P168" s="29"/>
       <c r="Q168" s="4"/>
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
@@ -7451,21 +7728,23 @@
       <c r="A169" s="5">
         <v>168</v>
       </c>
-      <c r="B169" s="7"/>
-      <c r="C169" s="17"/>
-      <c r="D169" s="18"/>
-      <c r="E169" s="18"/>
-      <c r="F169" s="18"/>
-      <c r="G169" s="18"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
-      <c r="K169" s="18"/>
-      <c r="L169" s="18"/>
-      <c r="M169" s="18"/>
-      <c r="N169" s="18"/>
-      <c r="O169" s="19"/>
-      <c r="P169" s="7"/>
+      <c r="B169" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C169" s="26"/>
+      <c r="D169" s="27"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="27"/>
+      <c r="G169" s="27"/>
+      <c r="H169" s="27"/>
+      <c r="I169" s="27"/>
+      <c r="J169" s="27"/>
+      <c r="K169" s="27"/>
+      <c r="L169" s="27"/>
+      <c r="M169" s="27"/>
+      <c r="N169" s="27"/>
+      <c r="O169" s="28"/>
+      <c r="P169" s="29"/>
       <c r="Q169" s="4"/>
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
@@ -7490,19 +7769,19 @@
         <v>169</v>
       </c>
       <c r="B170" s="7"/>
-      <c r="C170" s="17"/>
-      <c r="D170" s="18"/>
-      <c r="E170" s="18"/>
-      <c r="F170" s="18"/>
-      <c r="G170" s="18"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
-      <c r="K170" s="18"/>
-      <c r="L170" s="18"/>
-      <c r="M170" s="18"/>
-      <c r="N170" s="18"/>
-      <c r="O170" s="19"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="14"/>
       <c r="P170" s="7"/>
       <c r="Q170" s="4"/>
       <c r="R170" s="1"/>
@@ -7528,19 +7807,19 @@
         <v>170</v>
       </c>
       <c r="B171" s="7"/>
-      <c r="C171" s="17"/>
-      <c r="D171" s="18"/>
-      <c r="E171" s="18"/>
-      <c r="F171" s="18"/>
-      <c r="G171" s="18"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
-      <c r="K171" s="18"/>
-      <c r="L171" s="18"/>
-      <c r="M171" s="18"/>
-      <c r="N171" s="18"/>
-      <c r="O171" s="19"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+      <c r="O171" s="14"/>
       <c r="P171" s="7"/>
       <c r="Q171" s="4"/>
       <c r="R171" s="1"/>
@@ -7566,19 +7845,19 @@
         <v>171</v>
       </c>
       <c r="B172" s="7"/>
-      <c r="C172" s="17"/>
-      <c r="D172" s="18"/>
-      <c r="E172" s="18"/>
-      <c r="F172" s="18"/>
-      <c r="G172" s="18"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
-      <c r="K172" s="18"/>
-      <c r="L172" s="18"/>
-      <c r="M172" s="18"/>
-      <c r="N172" s="18"/>
-      <c r="O172" s="19"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+      <c r="O172" s="14"/>
       <c r="P172" s="7"/>
       <c r="Q172" s="4"/>
       <c r="R172" s="1"/>
@@ -7604,19 +7883,19 @@
         <v>172</v>
       </c>
       <c r="B173" s="7"/>
-      <c r="C173" s="17"/>
-      <c r="D173" s="18"/>
-      <c r="E173" s="18"/>
-      <c r="F173" s="18"/>
-      <c r="G173" s="18"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
-      <c r="K173" s="18"/>
-      <c r="L173" s="18"/>
-      <c r="M173" s="18"/>
-      <c r="N173" s="18"/>
-      <c r="O173" s="19"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="14"/>
       <c r="P173" s="7"/>
       <c r="Q173" s="4"/>
       <c r="R173" s="1"/>
@@ -7642,16 +7921,19 @@
         <v>173</v>
       </c>
       <c r="B174" s="7"/>
-      <c r="C174" s="17"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="18"/>
-      <c r="G174" s="18"/>
-      <c r="K174" s="18"/>
-      <c r="L174" s="18"/>
-      <c r="M174" s="18"/>
-      <c r="N174" s="18"/>
-      <c r="O174" s="19"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="9"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="9"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+      <c r="O174" s="14"/>
       <c r="P174" s="7"/>
       <c r="Q174" s="4"/>
       <c r="R174" s="1"/>
@@ -7677,21 +7959,19 @@
         <v>174</v>
       </c>
       <c r="B175" s="7"/>
-      <c r="C175" s="17"/>
-      <c r="D175" s="18"/>
-      <c r="E175" s="18"/>
-      <c r="F175" s="18"/>
-      <c r="G175" s="18"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
       <c r="H175" s="1"/>
-      <c r="I175" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="I175" s="1"/>
       <c r="J175" s="1"/>
-      <c r="K175" s="18"/>
-      <c r="L175" s="18"/>
-      <c r="M175" s="18"/>
-      <c r="N175" s="18"/>
-      <c r="O175" s="19"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" s="14"/>
       <c r="P175" s="7"/>
       <c r="Q175" s="4"/>
       <c r="R175" s="1"/>
@@ -7717,23 +7997,19 @@
         <v>175</v>
       </c>
       <c r="B176" s="7"/>
-      <c r="C176" s="17"/>
-      <c r="D176" s="18"/>
-      <c r="E176" s="18"/>
-      <c r="F176" s="18"/>
-      <c r="G176" s="18"/>
-      <c r="H176" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I176" s="21"/>
-      <c r="J176" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K176" s="18"/>
-      <c r="L176" s="18"/>
-      <c r="M176" s="18"/>
-      <c r="N176" s="18"/>
-      <c r="O176" s="19"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="14"/>
       <c r="P176" s="7"/>
       <c r="Q176" s="4"/>
       <c r="R176" s="1"/>
@@ -7759,39 +8035,19 @@
         <v>176</v>
       </c>
       <c r="B177" s="7"/>
-      <c r="C177" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C177" s="4"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
-      <c r="K177" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L177" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M177" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O177" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
       <c r="P177" s="7"/>
       <c r="Q177" s="4"/>
       <c r="R177" s="1"/>
@@ -7816,25 +8072,25 @@
       <c r="A178" s="5">
         <v>177</v>
       </c>
-      <c r="B178" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C178" s="23"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
-      <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
-      <c r="H178" s="8"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="I178" s="8"/>
-      <c r="J178" s="8"/>
-      <c r="K178" s="8"/>
-      <c r="L178" s="8"/>
-      <c r="M178" s="8"/>
-      <c r="N178" s="8"/>
-      <c r="O178" s="22"/>
-      <c r="P178" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="J178" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="O178" s="14"/>
+      <c r="P178" s="7"/>
       <c r="Q178" s="4"/>
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
@@ -7859,6 +8115,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="7"/>
+      <c r="H179" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I179" s="8"/>
+      <c r="J179" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="P179" s="7"/>
       <c r="Q179" s="4"/>
       <c r="R179" s="1"/>
@@ -7889,9 +8152,13 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
+      <c r="H180" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I180" s="8"/>
+      <c r="J180" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
@@ -7926,11 +8193,15 @@
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
+      <c r="G181" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H181" s="8"/>
+      <c r="I181" s="8"/>
+      <c r="J181" s="8"/>
+      <c r="K181" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
@@ -7964,11 +8235,15 @@
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
-      <c r="K182" s="1"/>
+      <c r="G182" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H182" s="8"/>
+      <c r="I182" s="8"/>
+      <c r="J182" s="8"/>
+      <c r="K182" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
@@ -8002,11 +8277,15 @@
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
-      <c r="K183" s="1"/>
+      <c r="G183" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H183" s="8"/>
+      <c r="I183" s="8"/>
+      <c r="J183" s="8"/>
+      <c r="K183" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
@@ -8040,11 +8319,15 @@
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
-      <c r="K184" s="1"/>
+      <c r="G184" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H184" s="8"/>
+      <c r="I184" s="8"/>
+      <c r="J184" s="8"/>
+      <c r="K184" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
@@ -8079,13 +8362,13 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H185" s="8"/>
       <c r="I185" s="8"/>
       <c r="J185" s="8"/>
       <c r="K185" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
@@ -8121,17 +8404,17 @@
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H186" s="8"/>
       <c r="I186" s="8"/>
       <c r="J186" s="8"/>
       <c r="K186" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="L186" s="1"/>
       <c r="M186" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="N186" s="1"/>
       <c r="O186" s="14"/>
@@ -8165,13 +8448,13 @@
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H187" s="8"/>
       <c r="I187" s="8"/>
       <c r="J187" s="8"/>
       <c r="K187" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
@@ -8207,17 +8490,17 @@
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H188" s="8"/>
       <c r="I188" s="8"/>
       <c r="J188" s="8"/>
       <c r="K188" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="L188" s="1"/>
       <c r="M188" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="N188" s="1"/>
       <c r="O188" s="14"/>
@@ -8251,13 +8534,13 @@
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H189" s="8"/>
       <c r="I189" s="8"/>
       <c r="J189" s="8"/>
       <c r="K189" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
@@ -8293,9 +8576,13 @@
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
-      <c r="H190" s="1"/>
-      <c r="I190" s="1"/>
-      <c r="J190" s="1"/>
+      <c r="H190" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I190" s="8"/>
+      <c r="J190" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
@@ -8331,9 +8618,13 @@
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
-      <c r="H191" s="1"/>
-      <c r="I191" s="1"/>
-      <c r="J191" s="1"/>
+      <c r="H191" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I191" s="8"/>
+      <c r="J191" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
@@ -8369,9 +8660,13 @@
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
-      <c r="H192" s="1"/>
-      <c r="I192" s="1"/>
-      <c r="J192" s="1"/>
+      <c r="H192" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I192" s="8"/>
+      <c r="J192" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
@@ -8516,27 +8811,25 @@
         <v>195</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C196" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="C196" s="19"/>
       <c r="D196" s="8"/>
       <c r="E196" s="8"/>
-      <c r="F196" s="8"/>
-      <c r="G196" s="1" t="s">
-        <v>19</v>
+      <c r="F196" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
-      <c r="K196" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L196" s="8"/>
+      <c r="L196" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="M196" s="8"/>
       <c r="N196" s="8"/>
-      <c r="O196" s="22"/>
+      <c r="O196" s="18"/>
       <c r="P196" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="Q196" s="4"/>
       <c r="R196" s="1"/>
@@ -8568,16 +8861,17 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
-      <c r="I197" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
-      <c r="M197" s="1"/>
-      <c r="N197" s="1"/>
-      <c r="O197" s="14"/>
-      <c r="P197" s="7"/>
+      <c r="M197" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N197" s="8"/>
+      <c r="O197" s="18"/>
+      <c r="P197" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="Q197" s="4"/>
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
@@ -8613,9 +8907,13 @@
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
-      <c r="N198" s="1"/>
-      <c r="O198" s="14"/>
-      <c r="P198" s="7"/>
+      <c r="N198" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O198" s="18"/>
+      <c r="P198" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="Q198" s="4"/>
       <c r="R198" s="1"/>
       <c r="S198" s="1"/>
@@ -8639,8 +8937,17 @@
       <c r="A199" s="5">
         <v>198</v>
       </c>
-      <c r="B199" s="25"/>
-      <c r="P199" s="25"/>
+      <c r="B199" s="21"/>
+      <c r="I199" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N199" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O199" s="20"/>
+      <c r="P199" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
       <c r="S199" s="1"/>
@@ -8664,8 +8971,14 @@
       <c r="A200" s="5">
         <v>199</v>
       </c>
-      <c r="B200" s="25"/>
-      <c r="P200" s="25"/>
+      <c r="B200" s="21"/>
+      <c r="N200" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O200" s="20"/>
+      <c r="P200" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
       <c r="S200" s="1"/>
@@ -8689,8 +9002,14 @@
       <c r="A201" s="5">
         <v>200</v>
       </c>
-      <c r="B201" s="25"/>
-      <c r="P201" s="25"/>
+      <c r="B201" s="21"/>
+      <c r="N201" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O201" s="20"/>
+      <c r="P201" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
       <c r="S201" s="1"/>
@@ -8715,28 +9034,21 @@
         <v>201</v>
       </c>
       <c r="B202" s="7"/>
-      <c r="C202" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="C202" s="4"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
-      <c r="G202" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
-      <c r="J202" s="1"/>
-      <c r="K202" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L202" s="1"/>
       <c r="M202" s="1"/>
-      <c r="N202" s="1"/>
-      <c r="O202" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P202" s="7"/>
+      <c r="N202" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O202" s="18"/>
+      <c r="P202" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="Q202" s="4"/>
       <c r="R202" s="1"/>
       <c r="S202" s="1"/>
@@ -8761,20 +9073,24 @@
         <v>202</v>
       </c>
       <c r="B203" s="7"/>
-      <c r="C203" s="17"/>
+      <c r="C203" s="4"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="16"/>
-      <c r="G203" s="18"/>
+      <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
-      <c r="K203" s="18"/>
+      <c r="K203" s="1"/>
       <c r="L203" s="1"/>
       <c r="M203" s="1"/>
-      <c r="N203" s="1"/>
-      <c r="O203" s="19"/>
-      <c r="P203" s="7"/>
+      <c r="N203" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O203" s="18"/>
+      <c r="P203" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="Q203" s="4"/>
       <c r="R203" s="1"/>
       <c r="S203" s="1"/>
@@ -8799,22 +9115,28 @@
         <v>203</v>
       </c>
       <c r="B204" s="7"/>
-      <c r="C204" s="17"/>
+      <c r="C204" s="4"/>
       <c r="D204" s="1"/>
-      <c r="E204" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="E204" s="1"/>
       <c r="F204" s="1"/>
-      <c r="G204" s="18"/>
+      <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
-      <c r="K204" s="18"/>
-      <c r="L204" s="1"/>
-      <c r="M204" s="1"/>
-      <c r="N204" s="1"/>
-      <c r="O204" s="19"/>
-      <c r="P204" s="7"/>
+      <c r="K204" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L204" s="17"/>
+      <c r="M204" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N204" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O204" s="18"/>
+      <c r="P204" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="Q204" s="4"/>
       <c r="R204" s="1"/>
       <c r="S204" s="1"/>
@@ -8839,20 +9161,24 @@
         <v>204</v>
       </c>
       <c r="B205" s="7"/>
-      <c r="C205" s="17"/>
+      <c r="C205" s="4"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
-      <c r="G205" s="18"/>
+      <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
-      <c r="K205" s="18"/>
+      <c r="K205" s="1"/>
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
-      <c r="N205" s="1"/>
-      <c r="O205" s="19"/>
-      <c r="P205" s="7"/>
+      <c r="N205" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O205" s="18"/>
+      <c r="P205" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="Q205" s="4"/>
       <c r="R205" s="1"/>
       <c r="S205" s="1"/>
@@ -8877,22 +9203,24 @@
         <v>205</v>
       </c>
       <c r="B206" s="7"/>
-      <c r="C206" s="17"/>
+      <c r="C206" s="4"/>
       <c r="D206" s="1"/>
-      <c r="E206" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="E206" s="1"/>
       <c r="F206" s="1"/>
-      <c r="G206" s="18"/>
-      <c r="H206" s="1"/>
-      <c r="I206" s="1"/>
-      <c r="J206" s="1"/>
-      <c r="K206" s="18"/>
-      <c r="L206" s="1"/>
-      <c r="M206" s="1"/>
-      <c r="N206" s="1"/>
-      <c r="O206" s="19"/>
-      <c r="P206" s="7"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I206" s="8"/>
+      <c r="J206" s="8"/>
+      <c r="K206" s="8"/>
+      <c r="L206" s="8"/>
+      <c r="M206" s="8"/>
+      <c r="N206" s="8"/>
+      <c r="O206" s="18"/>
+      <c r="P206" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="Q206" s="4"/>
       <c r="R206" s="1"/>
       <c r="S206" s="1"/>
@@ -8917,19 +9245,27 @@
         <v>206</v>
       </c>
       <c r="B207" s="7"/>
-      <c r="C207" s="17"/>
-      <c r="D207" s="9"/>
-      <c r="E207" s="9"/>
-      <c r="F207" s="9"/>
-      <c r="G207" s="20"/>
-      <c r="H207" s="9"/>
-      <c r="I207" s="9"/>
-      <c r="J207" s="9"/>
-      <c r="K207" s="18"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E207" s="25"/>
+      <c r="F207" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G207" s="9"/>
+      <c r="H207" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I207" s="8"/>
+      <c r="J207" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K207" s="1"/>
       <c r="L207" s="1"/>
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
-      <c r="O207" s="19"/>
+      <c r="O207" s="14"/>
       <c r="P207" s="7"/>
       <c r="Q207" s="4"/>
       <c r="R207" s="1"/>
@@ -8955,21 +9291,25 @@
         <v>207</v>
       </c>
       <c r="B208" s="7"/>
-      <c r="C208" s="17"/>
+      <c r="C208" s="4"/>
       <c r="D208" s="9"/>
-      <c r="E208" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="E208" s="9"/>
       <c r="F208" s="9"/>
-      <c r="G208" s="20"/>
-      <c r="H208" s="9"/>
-      <c r="I208" s="9"/>
-      <c r="J208" s="9"/>
-      <c r="K208" s="18"/>
-      <c r="L208" s="1"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I208" s="8"/>
+      <c r="J208" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
-      <c r="O208" s="19"/>
+      <c r="O208" s="14"/>
       <c r="P208" s="7"/>
       <c r="Q208" s="4"/>
       <c r="R208" s="1"/>
@@ -8995,31 +9335,25 @@
         <v>208</v>
       </c>
       <c r="B209" s="7"/>
-      <c r="C209" s="17"/>
-      <c r="D209" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E209" s="21"/>
-      <c r="F209" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G209" s="18"/>
-      <c r="H209" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I209" s="21"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F209" s="8"/>
+      <c r="G209" s="8"/>
+      <c r="H209" s="20"/>
+      <c r="I209" s="8"/>
       <c r="J209" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K209" s="18"/>
-      <c r="L209" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M209" s="21"/>
-      <c r="N209" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O209" s="19"/>
+        <v>39</v>
+      </c>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N209" s="1"/>
+      <c r="O209" s="14"/>
       <c r="P209" s="7"/>
       <c r="Q209" s="4"/>
       <c r="R209" s="1"/>
@@ -9045,27 +9379,25 @@
         <v>209</v>
       </c>
       <c r="B210" s="7"/>
-      <c r="C210" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="C210" s="4"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
-      <c r="G210" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H210" s="1"/>
-      <c r="I210" s="1"/>
-      <c r="J210" s="1"/>
-      <c r="K210" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I210" s="8"/>
+      <c r="J210" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K210" s="1"/>
       <c r="L210" s="1"/>
-      <c r="M210" s="1"/>
+      <c r="M210" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N210" s="1"/>
-      <c r="O210" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="O210" s="14"/>
       <c r="P210" s="7"/>
       <c r="Q210" s="4"/>
       <c r="R210" s="1"/>
@@ -9090,25 +9422,27 @@
       <c r="A211" s="10">
         <v>210</v>
       </c>
-      <c r="B211" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C211" s="23"/>
-      <c r="D211" s="8"/>
-      <c r="E211" s="8"/>
-      <c r="F211" s="8"/>
-      <c r="G211" s="8"/>
-      <c r="H211" s="8"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="I211" s="8"/>
-      <c r="J211" s="8"/>
-      <c r="K211" s="8"/>
-      <c r="L211" s="8"/>
-      <c r="M211" s="8"/>
-      <c r="N211" s="8"/>
-      <c r="O211" s="22"/>
-      <c r="P211" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="J211" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N211" s="1"/>
+      <c r="O211" s="14"/>
+      <c r="P211" s="7"/>
       <c r="Q211" s="4"/>
       <c r="R211" s="1"/>
       <c r="S211" s="1"/>
@@ -9132,8 +9466,18 @@
       <c r="A212" s="10">
         <v>211</v>
       </c>
-      <c r="B212" s="25"/>
-      <c r="P212" s="25"/>
+      <c r="B212" s="21"/>
+      <c r="H212" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I212" s="8"/>
+      <c r="J212" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M212" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P212" s="21"/>
       <c r="Q212" s="4"/>
       <c r="R212" s="1"/>
       <c r="S212" s="1"/>
@@ -9157,8 +9501,18 @@
       <c r="A213" s="10">
         <v>212</v>
       </c>
-      <c r="B213" s="25"/>
-      <c r="P213" s="25"/>
+      <c r="B213" s="21"/>
+      <c r="H213" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I213" s="8"/>
+      <c r="J213" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M213" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P213" s="21"/>
       <c r="Q213" s="4"/>
       <c r="R213" s="1"/>
       <c r="S213" s="1"/>
@@ -9189,12 +9543,11 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
-      <c r="I214" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
-      <c r="L214" s="1"/>
+      <c r="L214" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
       <c r="O214" s="14"/>
@@ -9267,7 +9620,9 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
-      <c r="I216" s="1"/>
+      <c r="I216" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
@@ -9413,13 +9768,13 @@
         <v>219</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
@@ -9431,13 +9786,13 @@
       <c r="L220" s="1"/>
       <c r="M220" s="1"/>
       <c r="N220" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="O220" s="14" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="P220" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="Q220" s="4"/>
       <c r="R220" s="1"/>
@@ -9657,7 +10012,9 @@
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
+      <c r="G226" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
@@ -9696,12 +10053,9 @@
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
-      <c r="H227" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="I227" s="1"/>
       <c r="J227" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
@@ -9970,7 +10324,7 @@
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="L234" s="1"/>
       <c r="M234" s="1"/>
@@ -10277,7 +10631,7 @@
       <c r="J242" s="9"/>
       <c r="K242" s="1"/>
       <c r="L242" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
@@ -10421,16 +10775,15 @@
         <v>245</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C246" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="C246" s="19"/>
       <c r="D246" s="8"/>
       <c r="E246" s="8"/>
       <c r="F246" s="8"/>
       <c r="G246" s="8"/>
-      <c r="H246" s="8"/>
-      <c r="I246" s="1" t="s">
-        <v>26</v>
+      <c r="H246" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
@@ -10803,16 +11156,17 @@
       <c r="A256" s="10">
         <v>255</v>
       </c>
-      <c r="B256" s="7"/>
-      <c r="C256" s="4"/>
-      <c r="D256" s="1"/>
-      <c r="E256" s="1"/>
+      <c r="B256" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C256" s="19"/>
+      <c r="D256" s="8"/>
+      <c r="E256" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
-      <c r="I256" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
       <c r="L256" s="1"/>
@@ -10850,16 +11204,15 @@
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
-      <c r="J257" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K257" s="8"/>
+      <c r="K257" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="L257" s="8"/>
       <c r="M257" s="8"/>
       <c r="N257" s="8"/>
       <c r="O257" s="8"/>
       <c r="P257" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Q257" s="4"/>
       <c r="R257" s="1"/>
@@ -10884,9 +11237,13 @@
       <c r="A258" s="10">
         <v>257</v>
       </c>
-      <c r="B258" s="7"/>
-      <c r="C258" s="4"/>
-      <c r="D258" s="1"/>
+      <c r="B258" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C258" s="19"/>
+      <c r="D258" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
@@ -10928,7 +11285,9 @@
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
-      <c r="H259" s="1"/>
+      <c r="H259" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
@@ -10960,9 +11319,13 @@
       <c r="A260" s="10">
         <v>259</v>
       </c>
-      <c r="B260" s="7"/>
-      <c r="C260" s="4"/>
-      <c r="D260" s="1"/>
+      <c r="B260" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C260" s="19"/>
+      <c r="D260" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
@@ -11036,9 +11399,13 @@
       <c r="A262" s="10">
         <v>261</v>
       </c>
-      <c r="B262" s="7"/>
-      <c r="C262" s="4"/>
-      <c r="D262" s="1"/>
+      <c r="B262" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C262" s="19"/>
+      <c r="D262" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
@@ -11112,9 +11479,13 @@
       <c r="A264" s="10">
         <v>263</v>
       </c>
-      <c r="B264" s="7"/>
-      <c r="C264" s="4"/>
-      <c r="D264" s="1"/>
+      <c r="B264" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C264" s="19"/>
+      <c r="D264" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
@@ -11188,10 +11559,14 @@
       <c r="A266" s="10">
         <v>265</v>
       </c>
-      <c r="B266" s="7"/>
-      <c r="C266" s="4"/>
-      <c r="D266" s="1"/>
-      <c r="E266" s="1"/>
+      <c r="B266" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C266" s="19"/>
+      <c r="D266" s="8"/>
+      <c r="E266" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
@@ -11264,23 +11639,20 @@
       <c r="A268" s="10">
         <v>267</v>
       </c>
-      <c r="B268" s="7"/>
-      <c r="C268" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D268" s="1"/>
-      <c r="E268" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F268" s="8"/>
-      <c r="G268" s="8"/>
-      <c r="H268" s="8"/>
-      <c r="I268" s="8"/>
-      <c r="J268" s="8"/>
-      <c r="K268" s="8"/>
-      <c r="L268" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="B268" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C268" s="8"/>
+      <c r="D268" s="8"/>
+      <c r="E268" s="20"/>
+      <c r="F268" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G268" s="1"/>
+      <c r="H268" s="1"/>
+      <c r="I268" s="1"/>
+      <c r="J268" s="1"/>
+      <c r="K268" s="1"/>
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
@@ -11346,20 +11718,21 @@
       <c r="A270" s="10">
         <v>269</v>
       </c>
-      <c r="B270" s="7"/>
-      <c r="C270" s="4"/>
-      <c r="D270" s="1"/>
-      <c r="E270" s="1"/>
-      <c r="F270" s="1"/>
+      <c r="B270" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C270" s="19"/>
+      <c r="D270" s="8"/>
+      <c r="E270" s="8"/>
+      <c r="F270" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
       <c r="L270" s="1"/>
-      <c r="M270" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
       <c r="P270" s="7"/>
@@ -11394,7 +11767,9 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
-      <c r="J271" s="1"/>
+      <c r="J271" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="K271" s="1"/>
       <c r="L271" s="1"/>
       <c r="M271" s="1"/>
@@ -11424,12 +11799,16 @@
       <c r="A272" s="10">
         <v>271</v>
       </c>
-      <c r="B272" s="7"/>
-      <c r="C272" s="4"/>
-      <c r="D272" s="1"/>
-      <c r="E272" s="1"/>
-      <c r="F272" s="1"/>
-      <c r="G272" s="1"/>
+      <c r="B272" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C272" s="19"/>
+      <c r="D272" s="8"/>
+      <c r="E272" s="8"/>
+      <c r="F272" s="8"/>
+      <c r="G272" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
@@ -11583,12 +11962,8 @@
       <c r="H276" s="9"/>
       <c r="I276" s="9"/>
       <c r="J276" s="9"/>
-      <c r="K276" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="L276" s="21" t="s">
-        <v>34</v>
-      </c>
+      <c r="K276" s="1"/>
+      <c r="L276" s="1"/>
       <c r="M276" s="1"/>
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
@@ -11695,25 +12070,18 @@
       <c r="B279" s="7"/>
       <c r="C279" s="4"/>
       <c r="D279" s="1"/>
-      <c r="E279" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F279" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G279" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H279" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I279" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J279" s="1"/>
-      <c r="K279" s="1"/>
-      <c r="L279" s="1"/>
-      <c r="M279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
+      <c r="G279" s="1"/>
+      <c r="H279" s="1"/>
+      <c r="I279" s="1"/>
+      <c r="J279" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K279" s="17"/>
+      <c r="L279" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
       <c r="P279" s="7"/>
@@ -11743,11 +12111,11 @@
       <c r="B280" s="7"/>
       <c r="C280" s="4"/>
       <c r="D280" s="1"/>
-      <c r="E280" s="18"/>
-      <c r="F280" s="18"/>
-      <c r="G280" s="18"/>
-      <c r="H280" s="18"/>
-      <c r="I280" s="18"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
+      <c r="G280" s="1"/>
+      <c r="H280" s="1"/>
+      <c r="I280" s="1"/>
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
       <c r="L280" s="1"/>
@@ -11779,23 +12147,19 @@
         <v>280</v>
       </c>
       <c r="B281" s="7"/>
-      <c r="C281" s="1"/>
-      <c r="D281" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E281" s="18"/>
-      <c r="F281" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G281" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H281" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I281" s="18"/>
-      <c r="J281" s="1"/>
-      <c r="K281" s="1"/>
+      <c r="C281" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D281" s="8"/>
+      <c r="E281" s="8"/>
+      <c r="F281" s="8"/>
+      <c r="G281" s="8"/>
+      <c r="H281" s="8"/>
+      <c r="I281" s="8"/>
+      <c r="J281" s="8"/>
+      <c r="K281" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="L281" s="1"/>
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
@@ -11825,15 +12189,22 @@
         <v>281</v>
       </c>
       <c r="B282" s="7"/>
-      <c r="C282" s="4"/>
-      <c r="D282" s="1"/>
-      <c r="E282" s="18"/>
+      <c r="C282" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E282" s="1"/>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
-      <c r="I282" s="18"/>
-      <c r="J282" s="1"/>
-      <c r="K282" s="1"/>
+      <c r="J282" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K282" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="L282" s="1"/>
       <c r="M282" s="1"/>
       <c r="N282" s="1"/>
@@ -11863,17 +12234,23 @@
         <v>282</v>
       </c>
       <c r="B283" s="7"/>
-      <c r="C283" s="4"/>
-      <c r="D283" s="1"/>
-      <c r="E283" s="18"/>
+      <c r="C283" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E283" s="1"/>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
-      <c r="I283" s="18"/>
-      <c r="J283" s="1"/>
-      <c r="K283" s="1"/>
+      <c r="J283" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K283" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="L283" s="1"/>
-      <c r="M283" s="1"/>
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
       <c r="P283" s="7"/>
@@ -11901,15 +12278,22 @@
         <v>283</v>
       </c>
       <c r="B284" s="7"/>
-      <c r="C284" s="4"/>
-      <c r="D284" s="1"/>
-      <c r="E284" s="18"/>
+      <c r="C284" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E284" s="1"/>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
-      <c r="I284" s="18"/>
-      <c r="J284" s="1"/>
-      <c r="K284" s="1"/>
+      <c r="J284" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K284" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="L284" s="1"/>
       <c r="M284" s="1"/>
       <c r="N284" s="1"/>
@@ -11940,16 +12324,21 @@
       </c>
       <c r="B285" s="7"/>
       <c r="C285" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D285" s="1"/>
-      <c r="E285" s="18"/>
+        <v>40</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
-      <c r="I285" s="18"/>
-      <c r="J285" s="1"/>
-      <c r="K285" s="1"/>
+      <c r="J285" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K285" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="L285" s="1"/>
       <c r="M285" s="1"/>
       <c r="N285" s="1"/>
@@ -11979,15 +12368,24 @@
         <v>285</v>
       </c>
       <c r="B286" s="7"/>
-      <c r="C286" s="4"/>
-      <c r="D286" s="1"/>
-      <c r="E286" s="18"/>
+      <c r="C286" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E286" s="1"/>
       <c r="F286" s="1"/>
-      <c r="G286" s="1"/>
+      <c r="G286" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H286" s="1"/>
-      <c r="I286" s="18"/>
-      <c r="J286" s="1"/>
-      <c r="K286" s="1"/>
+      <c r="J286" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K286" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="L286" s="1"/>
       <c r="M286" s="1"/>
       <c r="N286" s="1"/>
@@ -12017,16 +12415,23 @@
         <v>286</v>
       </c>
       <c r="B287" s="7"/>
-      <c r="C287" s="4"/>
-      <c r="D287" s="1"/>
-      <c r="E287" s="18"/>
+      <c r="C287" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E287" s="1"/>
       <c r="F287" s="1"/>
-      <c r="G287" s="1"/>
+      <c r="G287" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H287" s="1"/>
-      <c r="I287" s="18"/>
-      <c r="J287" s="1"/>
+      <c r="J287" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="K287" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L287" s="1"/>
       <c r="M287" s="1"/>
@@ -12057,15 +12462,24 @@
         <v>287</v>
       </c>
       <c r="B288" s="7"/>
-      <c r="C288" s="4"/>
-      <c r="D288" s="1"/>
-      <c r="E288" s="18"/>
+      <c r="C288" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E288" s="1"/>
       <c r="F288" s="1"/>
-      <c r="G288" s="1"/>
+      <c r="G288" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H288" s="1"/>
-      <c r="I288" s="18"/>
-      <c r="J288" s="1"/>
-      <c r="K288" s="1"/>
+      <c r="J288" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K288" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="L288" s="1"/>
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
@@ -12095,22 +12509,29 @@
         <v>288</v>
       </c>
       <c r="B289" s="7"/>
-      <c r="C289" s="4"/>
-      <c r="D289" s="1"/>
-      <c r="E289" s="18"/>
+      <c r="C289" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E289" s="1"/>
       <c r="F289" s="1"/>
       <c r="G289" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H289" s="1"/>
-      <c r="I289" s="18"/>
-      <c r="J289" s="1"/>
-      <c r="K289" s="1"/>
-      <c r="L289" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="J289" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K289" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L289" s="1"/>
       <c r="M289" s="1"/>
-      <c r="N289" s="1"/>
+      <c r="N289" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="O289" s="1"/>
       <c r="P289" s="7"/>
       <c r="Q289" s="4"/>
@@ -12137,15 +12558,24 @@
         <v>289</v>
       </c>
       <c r="B290" s="7"/>
-      <c r="C290" s="4"/>
-      <c r="D290" s="1"/>
-      <c r="E290" s="18"/>
+      <c r="C290" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E290" s="1"/>
       <c r="F290" s="1"/>
-      <c r="G290" s="1"/>
+      <c r="G290" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H290" s="1"/>
-      <c r="I290" s="18"/>
-      <c r="J290" s="1"/>
-      <c r="K290" s="1"/>
+      <c r="J290" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K290" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="L290" s="1"/>
       <c r="M290" s="1"/>
       <c r="N290" s="1"/>
@@ -12175,21 +12605,26 @@
         <v>290</v>
       </c>
       <c r="B291" s="7"/>
-      <c r="C291" s="1"/>
+      <c r="C291" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="D291" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E291" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="E291" s="1"/>
       <c r="F291" s="1"/>
-      <c r="G291" s="1"/>
+      <c r="G291" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="H291" s="1"/>
-      <c r="I291" s="18"/>
-      <c r="J291" s="1"/>
-      <c r="K291" s="1"/>
+      <c r="J291" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K291" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="L291" s="1"/>
-      <c r="M291" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="M291" s="1"/>
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
       <c r="P291" s="7"/>
@@ -12217,15 +12652,22 @@
         <v>291</v>
       </c>
       <c r="B292" s="7"/>
-      <c r="C292" s="4"/>
-      <c r="D292" s="1"/>
-      <c r="E292" s="18"/>
+      <c r="C292" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
-      <c r="I292" s="18"/>
-      <c r="J292" s="1"/>
-      <c r="K292" s="1"/>
+      <c r="J292" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K292" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="L292" s="1"/>
       <c r="M292" s="1"/>
       <c r="N292" s="1"/>
@@ -12255,20 +12697,25 @@
         <v>292</v>
       </c>
       <c r="B293" s="7"/>
-      <c r="C293" s="4"/>
-      <c r="D293" s="1"/>
-      <c r="E293" s="18"/>
+      <c r="C293" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
-      <c r="I293" s="18"/>
-      <c r="J293" s="1"/>
-      <c r="K293" s="1"/>
+      <c r="J293" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K293" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="L293" s="1"/>
       <c r="M293" s="1"/>
-      <c r="N293" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="N293" s="1"/>
       <c r="O293" s="1"/>
       <c r="P293" s="7"/>
       <c r="Q293" s="4"/>
@@ -12295,17 +12742,31 @@
         <v>293</v>
       </c>
       <c r="B294" s="7"/>
-      <c r="C294" s="4"/>
-      <c r="D294" s="1"/>
-      <c r="E294" s="18"/>
-      <c r="F294" s="1"/>
-      <c r="G294" s="1"/>
-      <c r="H294" s="1"/>
-      <c r="I294" s="18"/>
-      <c r="J294" s="1"/>
-      <c r="K294" s="12"/>
+      <c r="C294" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G294" s="17"/>
+      <c r="H294" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I294" s="1"/>
+      <c r="J294" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K294" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="L294" s="1"/>
-      <c r="M294" s="1"/>
+      <c r="M294" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
       <c r="P294" s="7"/>
@@ -12333,15 +12794,23 @@
         <v>294</v>
       </c>
       <c r="B295" s="7"/>
-      <c r="C295" s="4"/>
-      <c r="D295" s="1"/>
-      <c r="E295" s="18"/>
+      <c r="C295" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
-      <c r="I295" s="18"/>
-      <c r="J295" s="1"/>
-      <c r="K295" s="12"/>
+      <c r="I295" s="1"/>
+      <c r="J295" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K295" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="L295" s="1"/>
       <c r="M295" s="1"/>
       <c r="N295" s="1"/>
@@ -12371,15 +12840,19 @@
         <v>295</v>
       </c>
       <c r="B296" s="7"/>
-      <c r="C296" s="4"/>
-      <c r="D296" s="1"/>
-      <c r="E296" s="18"/>
-      <c r="F296" s="1"/>
-      <c r="G296" s="1"/>
-      <c r="H296" s="1"/>
-      <c r="I296" s="18"/>
-      <c r="J296" s="1"/>
-      <c r="K296" s="12"/>
+      <c r="C296" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D296" s="8"/>
+      <c r="E296" s="8"/>
+      <c r="F296" s="8"/>
+      <c r="G296" s="8"/>
+      <c r="H296" s="8"/>
+      <c r="I296" s="8"/>
+      <c r="J296" s="8"/>
+      <c r="K296" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="L296" s="1"/>
       <c r="M296" s="1"/>
       <c r="N296" s="1"/>
@@ -12409,15 +12882,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="7"/>
-      <c r="C297" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="C297" s="4"/>
       <c r="D297" s="1"/>
-      <c r="E297" s="18"/>
+      <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
-      <c r="I297" s="18"/>
+      <c r="I297" s="1"/>
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
       <c r="L297" s="1"/>
@@ -12451,14 +12922,11 @@
       <c r="B298" s="7"/>
       <c r="C298" s="4"/>
       <c r="D298" s="1"/>
-      <c r="E298" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="E298" s="1"/>
       <c r="F298" s="1"/>
+      <c r="G298" s="9"/>
       <c r="H298" s="1"/>
-      <c r="I298" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="I298" s="1"/>
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
       <c r="L298" s="1"/>
@@ -12680,25 +13148,23 @@
         <v>303</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C304" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="C304" s="19"/>
       <c r="D304" s="8"/>
       <c r="E304" s="8"/>
-      <c r="F304" s="8"/>
-      <c r="G304" s="1" t="s">
-        <v>26</v>
+      <c r="F304" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I304" s="1"/>
-      <c r="K304" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L304" s="8"/>
+      <c r="L304" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="M304" s="8"/>
       <c r="N304" s="8"/>
       <c r="O304" s="8"/>
       <c r="P304" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Q304" s="4"/>
       <c r="R304" s="1"/>
@@ -12851,7 +13317,9 @@
       <c r="M308" s="1"/>
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
-      <c r="P308" s="7"/>
+      <c r="P308" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="Q308" s="4"/>
       <c r="R308" s="1"/>
       <c r="S308" s="1"/>
@@ -12914,27 +13382,25 @@
         <v>309</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C310" s="23"/>
+        <v>25</v>
+      </c>
+      <c r="C310" s="19"/>
       <c r="D310" s="8"/>
       <c r="E310" s="8"/>
       <c r="F310" s="8"/>
       <c r="G310" s="8"/>
-      <c r="H310" s="8"/>
-      <c r="I310" s="1" t="s">
-        <v>26</v>
+      <c r="H310" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="J310" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M310" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N310" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="N310" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O310" s="8"/>
       <c r="P310" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Q310" s="4"/>
       <c r="R310" s="1"/>
@@ -13150,26 +13616,24 @@
         <v>315</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C316" s="23"/>
+        <v>25</v>
+      </c>
+      <c r="C316" s="19"/>
       <c r="D316" s="8"/>
       <c r="E316" s="8"/>
-      <c r="F316" s="8"/>
-      <c r="G316" s="1" t="s">
-        <v>26</v>
+      <c r="F316" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I316" s="1"/>
       <c r="J316" s="1"/>
-      <c r="K316" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L316" s="8"/>
+      <c r="L316" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="M316" s="8"/>
       <c r="N316" s="8"/>
       <c r="O316" s="8"/>
       <c r="P316" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Q316" s="4"/>
       <c r="R316" s="1"/>
@@ -13385,28 +13849,25 @@
         <v>321</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C322" s="23"/>
-      <c r="D322" s="8"/>
-      <c r="E322" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G322" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C322" s="19"/>
+      <c r="D322" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H322" t="s">
-        <v>45</v>
-      </c>
-      <c r="I322" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J322" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="J322" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K322" s="8"/>
       <c r="L322" s="8"/>
       <c r="M322" s="8"/>
       <c r="N322" s="8"/>
       <c r="O322" s="8"/>
       <c r="P322" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Q322" s="4"/>
       <c r="R322" s="1"/>
@@ -13622,26 +14083,24 @@
         <v>327</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C328" s="23"/>
+        <v>25</v>
+      </c>
+      <c r="C328" s="19"/>
       <c r="D328" s="8"/>
       <c r="E328" s="8"/>
-      <c r="F328" s="8"/>
-      <c r="G328" s="1" t="s">
-        <v>26</v>
+      <c r="F328" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I328" s="1"/>
       <c r="J328" s="1"/>
-      <c r="K328" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L328" s="8"/>
+      <c r="L328" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="M328" s="8"/>
       <c r="N328" s="8"/>
       <c r="O328" s="8"/>
       <c r="P328" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Q328" s="4"/>
       <c r="R328" s="1"/>
@@ -13749,7 +14208,9 @@
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
-      <c r="I331" s="1"/>
+      <c r="I331" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
       <c r="L331" s="1"/>
@@ -13787,9 +14248,7 @@
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
-      <c r="I332" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="I332" s="1"/>
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
       <c r="L332" s="1"/>
@@ -13980,7 +14439,7 @@
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
       <c r="J337" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="K337" s="1"/>
       <c r="L337" s="1"/>
@@ -14125,9 +14584,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="7"/>
-      <c r="C341" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
@@ -14203,11 +14660,11 @@
       </c>
       <c r="B343" s="7"/>
       <c r="C343" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D343" s="8"/>
       <c r="E343" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
@@ -14217,11 +14674,11 @@
       <c r="K343" s="1"/>
       <c r="L343" s="1"/>
       <c r="M343" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N343" s="8"/>
       <c r="O343" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P343" s="7"/>
       <c r="Q343" s="4"/>
@@ -14358,23 +14815,6 @@
       <c r="B347" s="7"/>
       <c r="C347" s="4"/>
       <c r="D347" s="9"/>
-      <c r="E347" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F347" s="8"/>
-      <c r="G347" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H347" s="9"/>
-      <c r="I347" s="9"/>
-      <c r="J347" s="9"/>
-      <c r="K347" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L347" s="8"/>
-      <c r="M347" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
       <c r="P347" s="7"/>
@@ -14436,15 +14876,23 @@
       <c r="B349" s="7"/>
       <c r="C349" s="4"/>
       <c r="D349" s="1"/>
-      <c r="E349" s="1"/>
-      <c r="F349" s="1"/>
-      <c r="G349" s="1"/>
-      <c r="H349" s="1"/>
-      <c r="I349" s="1"/>
-      <c r="J349" s="1"/>
-      <c r="K349" s="1"/>
-      <c r="L349" s="1"/>
-      <c r="M349" s="1"/>
+      <c r="E349" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F349" s="8"/>
+      <c r="G349" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H349" s="9"/>
+      <c r="I349" s="9"/>
+      <c r="J349" s="9"/>
+      <c r="K349" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L349" s="8"/>
+      <c r="M349" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
       <c r="P349" s="7"/>
@@ -14485,7 +14933,9 @@
       <c r="M350" s="1"/>
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
-      <c r="P350" s="7"/>
+      <c r="P350" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="Q350" s="4"/>
       <c r="R350" s="1"/>
       <c r="S350" s="1"/>
@@ -14510,23 +14960,6 @@
         <v>350</v>
       </c>
       <c r="B351" s="7"/>
-      <c r="C351" s="4"/>
-      <c r="D351" s="1"/>
-      <c r="E351" s="1"/>
-      <c r="F351" s="1"/>
-      <c r="G351" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H351" s="8"/>
-      <c r="I351" s="8"/>
-      <c r="J351" s="8"/>
-      <c r="K351" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L351" s="1"/>
-      <c r="M351" s="1"/>
-      <c r="N351" s="1"/>
-      <c r="O351" s="1"/>
       <c r="P351" s="7"/>
       <c r="Q351" s="4"/>
       <c r="R351" s="1"/>
@@ -14552,19 +14985,6 @@
         <v>351</v>
       </c>
       <c r="B352" s="7"/>
-      <c r="C352" s="4"/>
-      <c r="D352" s="1"/>
-      <c r="E352" s="1"/>
-      <c r="F352" s="1"/>
-      <c r="G352" s="1"/>
-      <c r="H352" s="1"/>
-      <c r="I352" s="1"/>
-      <c r="J352" s="1"/>
-      <c r="K352" s="1"/>
-      <c r="L352" s="1"/>
-      <c r="M352" s="1"/>
-      <c r="N352" s="1"/>
-      <c r="O352" s="1"/>
       <c r="P352" s="7"/>
       <c r="Q352" s="4"/>
       <c r="R352" s="1"/>
@@ -14590,19 +15010,6 @@
         <v>352</v>
       </c>
       <c r="B353" s="7"/>
-      <c r="C353" s="4"/>
-      <c r="D353" s="1"/>
-      <c r="E353" s="1"/>
-      <c r="F353" s="1"/>
-      <c r="G353" s="1"/>
-      <c r="H353" s="1"/>
-      <c r="I353" s="1"/>
-      <c r="J353" s="1"/>
-      <c r="K353" s="1"/>
-      <c r="L353" s="1"/>
-      <c r="M353" s="1"/>
-      <c r="N353" s="1"/>
-      <c r="O353" s="1"/>
       <c r="P353" s="7"/>
       <c r="Q353" s="4"/>
       <c r="R353" s="1"/>
@@ -14628,10 +15035,6 @@
         <v>353</v>
       </c>
       <c r="B354" s="7"/>
-      <c r="C354" s="4"/>
-      <c r="D354" s="1"/>
-      <c r="N354" s="1"/>
-      <c r="O354" s="1"/>
       <c r="P354" s="7"/>
       <c r="Q354" s="4"/>
       <c r="R354" s="1"/>
@@ -14659,23 +15062,19 @@
       <c r="B355" s="7"/>
       <c r="C355" s="4"/>
       <c r="D355" s="1"/>
-      <c r="E355" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F355" s="8"/>
+      <c r="E355" s="1"/>
+      <c r="F355" s="1"/>
       <c r="G355" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H355" s="1"/>
-      <c r="I355" s="1"/>
-      <c r="J355" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="H355" s="8"/>
+      <c r="I355" s="8"/>
+      <c r="J355" s="8"/>
       <c r="K355" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L355" s="8"/>
-      <c r="M355" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="L355" s="1"/>
+      <c r="M355" s="1"/>
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
       <c r="P355" s="7"/>
@@ -14741,6 +15140,19 @@
         <v>356</v>
       </c>
       <c r="B357" s="7"/>
+      <c r="C357" s="4"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
+      <c r="G357" s="1"/>
+      <c r="H357" s="1"/>
+      <c r="I357" s="1"/>
+      <c r="J357" s="1"/>
+      <c r="K357" s="1"/>
+      <c r="L357" s="1"/>
+      <c r="M357" s="1"/>
+      <c r="N357" s="1"/>
+      <c r="O357" s="1"/>
       <c r="P357" s="7"/>
       <c r="Q357" s="4"/>
       <c r="R357" s="1"/>
@@ -14768,15 +15180,6 @@
       <c r="B358" s="7"/>
       <c r="C358" s="4"/>
       <c r="D358" s="1"/>
-      <c r="E358" s="1"/>
-      <c r="F358" s="1"/>
-      <c r="G358" s="1"/>
-      <c r="H358" s="1"/>
-      <c r="I358" s="1"/>
-      <c r="J358" s="1"/>
-      <c r="K358" s="1"/>
-      <c r="L358" s="1"/>
-      <c r="M358" s="1"/>
       <c r="N358" s="1"/>
       <c r="O358" s="1"/>
       <c r="P358" s="7"/>
@@ -14804,27 +15207,6 @@
         <v>358</v>
       </c>
       <c r="B359" s="7"/>
-      <c r="C359" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D359" s="8"/>
-      <c r="E359" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F359" s="1"/>
-      <c r="G359" s="1"/>
-      <c r="H359" s="1"/>
-      <c r="I359" s="1"/>
-      <c r="J359" s="1"/>
-      <c r="K359" s="1"/>
-      <c r="L359" s="1"/>
-      <c r="M359" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N359" s="8"/>
-      <c r="O359" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="P359" s="7"/>
       <c r="Q359" s="4"/>
       <c r="R359" s="1"/>
@@ -14850,19 +15232,6 @@
         <v>359</v>
       </c>
       <c r="B360" s="7"/>
-      <c r="C360" s="4"/>
-      <c r="D360" s="1"/>
-      <c r="E360" s="1"/>
-      <c r="F360" s="1"/>
-      <c r="G360" s="1"/>
-      <c r="H360" s="1"/>
-      <c r="I360" s="1"/>
-      <c r="J360" s="1"/>
-      <c r="K360" s="1"/>
-      <c r="L360" s="1"/>
-      <c r="M360" s="1"/>
-      <c r="N360" s="1"/>
-      <c r="O360" s="1"/>
       <c r="P360" s="7"/>
       <c r="Q360" s="4"/>
       <c r="R360" s="1"/>
@@ -14890,17 +15259,23 @@
       <c r="B361" s="7"/>
       <c r="C361" s="4"/>
       <c r="D361" s="1"/>
-      <c r="E361" s="1"/>
-      <c r="F361" s="1"/>
-      <c r="G361" s="1"/>
+      <c r="E361" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F361" s="8"/>
+      <c r="G361" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="H361" s="1"/>
-      <c r="I361" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="I361" s="1"/>
       <c r="J361" s="1"/>
-      <c r="K361" s="1"/>
-      <c r="L361" s="1"/>
-      <c r="M361" s="1"/>
+      <c r="K361" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L361" s="8"/>
+      <c r="M361" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="N361" s="1"/>
       <c r="O361" s="1"/>
       <c r="P361" s="7"/>
@@ -14934,7 +15309,7 @@
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
-      <c r="I362" s="18"/>
+      <c r="I362" s="1"/>
       <c r="J362" s="1"/>
       <c r="K362" s="1"/>
       <c r="L362" s="1"/>
@@ -14966,19 +15341,9 @@
         <v>362</v>
       </c>
       <c r="B363" s="7"/>
-      <c r="C363" s="4"/>
-      <c r="D363" s="1"/>
-      <c r="E363" s="1"/>
-      <c r="F363" s="1"/>
-      <c r="G363" s="1"/>
-      <c r="H363" s="1"/>
-      <c r="I363" s="18"/>
-      <c r="J363" s="1"/>
-      <c r="K363" s="1"/>
-      <c r="L363" s="1"/>
-      <c r="M363" s="1"/>
-      <c r="N363" s="1"/>
-      <c r="O363" s="1"/>
+      <c r="I363" t="s">
+        <v>42</v>
+      </c>
       <c r="P363" s="7"/>
       <c r="Q363" s="4"/>
       <c r="R363" s="1"/>
@@ -15007,17 +15372,13 @@
       <c r="C364" s="4"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
-      <c r="F364" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F364" s="1"/>
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
-      <c r="I364" s="18"/>
+      <c r="I364" s="1"/>
       <c r="J364" s="1"/>
       <c r="K364" s="1"/>
-      <c r="L364" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="L364" s="1"/>
       <c r="M364" s="1"/>
       <c r="N364" s="1"/>
       <c r="O364" s="1"/>
@@ -15046,19 +15407,6 @@
         <v>364</v>
       </c>
       <c r="B365" s="7"/>
-      <c r="C365" s="4"/>
-      <c r="D365" s="1"/>
-      <c r="E365" s="1"/>
-      <c r="F365" s="1"/>
-      <c r="G365" s="1"/>
-      <c r="H365" s="1"/>
-      <c r="I365" s="18"/>
-      <c r="J365" s="1"/>
-      <c r="K365" s="1"/>
-      <c r="L365" s="1"/>
-      <c r="M365" s="1"/>
-      <c r="N365" s="1"/>
-      <c r="O365" s="1"/>
       <c r="P365" s="7"/>
       <c r="Q365" s="4"/>
       <c r="R365" s="1"/>
@@ -15084,19 +15432,6 @@
         <v>365</v>
       </c>
       <c r="B366" s="7"/>
-      <c r="C366" s="4"/>
-      <c r="D366" s="1"/>
-      <c r="E366" s="1"/>
-      <c r="F366" s="1"/>
-      <c r="G366" s="1"/>
-      <c r="H366" s="1"/>
-      <c r="I366" s="18"/>
-      <c r="J366" s="1"/>
-      <c r="K366" s="1"/>
-      <c r="L366" s="1"/>
-      <c r="M366" s="1"/>
-      <c r="N366" s="1"/>
-      <c r="O366" s="1"/>
       <c r="P366" s="7"/>
       <c r="Q366" s="4"/>
       <c r="R366" s="1"/>
@@ -15122,19 +15457,27 @@
         <v>366</v>
       </c>
       <c r="B367" s="7"/>
-      <c r="C367" s="4"/>
-      <c r="D367" s="1"/>
-      <c r="E367" s="1"/>
+      <c r="C367" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D367" s="8"/>
+      <c r="E367" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
-      <c r="I367" s="18"/>
+      <c r="I367" s="1"/>
       <c r="J367" s="1"/>
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
-      <c r="M367" s="1"/>
-      <c r="N367" s="1"/>
-      <c r="O367" s="1"/>
+      <c r="M367" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N367" s="8"/>
+      <c r="O367" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="P367" s="7"/>
       <c r="Q367" s="4"/>
       <c r="R367" s="1"/>
@@ -15166,7 +15509,7 @@
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
-      <c r="I368" s="18"/>
+      <c r="I368" s="1"/>
       <c r="J368" s="1"/>
       <c r="K368" s="1"/>
       <c r="L368" s="1"/>
@@ -15201,13 +15544,11 @@
       <c r="C369" s="4"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
-      <c r="F369" s="1"/>
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
-      <c r="I369" s="18"/>
+      <c r="I369" s="1"/>
       <c r="J369" s="1"/>
       <c r="K369" s="1"/>
-      <c r="L369" s="1"/>
       <c r="M369" s="1"/>
       <c r="N369" s="1"/>
       <c r="O369" s="1"/>
@@ -15242,9 +15583,11 @@
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
-      <c r="I370" s="18"/>
+      <c r="I370" s="1"/>
       <c r="J370" s="1"/>
-      <c r="K370" s="1"/>
+      <c r="K370" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="L370" s="1"/>
       <c r="M370" s="1"/>
       <c r="N370" s="1"/>
@@ -15280,16 +15623,14 @@
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
-      <c r="I371" s="18"/>
+      <c r="I371" s="1"/>
       <c r="J371" s="1"/>
       <c r="K371" s="1"/>
       <c r="L371" s="1"/>
       <c r="M371" s="1"/>
       <c r="N371" s="1"/>
       <c r="O371" s="1"/>
-      <c r="P371" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="P371" s="7"/>
       <c r="Q371" s="4"/>
       <c r="R371" s="1"/>
       <c r="S371" s="1"/>
@@ -15319,13 +15660,9 @@
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
-      <c r="H372" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I372" s="18"/>
-      <c r="J372" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="H372" s="1"/>
+      <c r="I372" s="1"/>
+      <c r="J372" s="1"/>
       <c r="K372" s="1"/>
       <c r="L372" s="1"/>
       <c r="M372" s="1"/>
@@ -15359,16 +15696,13 @@
       <c r="C373" s="4"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
-      <c r="F373" s="1"/>
-      <c r="G373" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H373" s="1"/>
-      <c r="I373" s="18"/>
+      <c r="F373" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G373" s="1"/>
+      <c r="I373" s="1"/>
       <c r="J373" s="1"/>
-      <c r="K373" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="K373" s="1"/>
       <c r="L373" s="1"/>
       <c r="M373" s="1"/>
       <c r="N373" s="1"/>
@@ -15402,9 +15736,11 @@
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
-      <c r="G374" s="1"/>
+      <c r="G374" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H374" s="1"/>
-      <c r="I374" s="18"/>
+      <c r="I374" s="1"/>
       <c r="J374" s="1"/>
       <c r="K374" s="1"/>
       <c r="L374" s="1"/>
@@ -15438,11 +15774,12 @@
       <c r="B375" s="7"/>
       <c r="C375" s="4"/>
       <c r="D375" s="1"/>
-      <c r="E375" s="1"/>
-      <c r="F375" s="1"/>
+      <c r="E375" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
-      <c r="I375" s="18"/>
+      <c r="I375" s="1"/>
       <c r="J375" s="1"/>
       <c r="K375" s="1"/>
       <c r="L375" s="1"/>
@@ -15480,7 +15817,7 @@
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
-      <c r="I376" s="18"/>
+      <c r="I376" s="1"/>
       <c r="J376" s="1"/>
       <c r="K376" s="1"/>
       <c r="L376" s="1"/>
@@ -15514,20 +15851,23 @@
       <c r="B377" s="7"/>
       <c r="C377" s="4"/>
       <c r="D377" s="1"/>
-      <c r="E377" s="1"/>
-      <c r="F377" s="1"/>
+      <c r="E377" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
-      <c r="I377" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="I377" s="1"/>
       <c r="J377" s="1"/>
       <c r="K377" s="1"/>
       <c r="L377" s="1"/>
       <c r="M377" s="1"/>
-      <c r="N377" s="1"/>
-      <c r="O377" s="1"/>
-      <c r="P377" s="7"/>
+      <c r="N377" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O377" s="8"/>
+      <c r="P377" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="Q377" s="4"/>
       <c r="R377" s="1"/>
       <c r="S377" s="1"/>
@@ -15552,31 +15892,19 @@
         <v>377</v>
       </c>
       <c r="B378" s="7"/>
-      <c r="C378" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="C378" s="4"/>
       <c r="D378" s="1"/>
-      <c r="E378" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F378" s="1"/>
-      <c r="G378" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="E378" s="9"/>
+      <c r="F378" s="9"/>
+      <c r="G378" s="1"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
-      <c r="K378" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="K378" s="1"/>
       <c r="L378" s="1"/>
-      <c r="M378" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="M378" s="1"/>
       <c r="N378" s="1"/>
-      <c r="O378" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="O378" s="1"/>
       <c r="P378" s="7"/>
       <c r="Q378" s="4"/>
       <c r="R378" s="1"/>
@@ -15602,20 +15930,26 @@
         <v>378</v>
       </c>
       <c r="B379" s="7"/>
-      <c r="C379" s="17"/>
+      <c r="C379" s="4"/>
       <c r="D379" s="1"/>
-      <c r="E379" s="1"/>
-      <c r="F379" s="1"/>
-      <c r="G379" s="18"/>
+      <c r="E379" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F379" s="9"/>
+      <c r="G379" s="1"/>
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
       <c r="J379" s="1"/>
-      <c r="K379" s="18"/>
+      <c r="K379" s="1"/>
       <c r="L379" s="1"/>
-      <c r="M379" s="1"/>
-      <c r="N379" s="1"/>
-      <c r="O379" s="18"/>
-      <c r="P379" s="7"/>
+      <c r="M379" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N379" s="8"/>
+      <c r="O379" s="8"/>
+      <c r="P379" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="Q379" s="4"/>
       <c r="R379" s="1"/>
       <c r="S379" s="1"/>
@@ -15640,19 +15974,17 @@
         <v>379</v>
       </c>
       <c r="B380" s="7"/>
-      <c r="C380" s="17"/>
+      <c r="C380" s="4"/>
       <c r="D380" s="1"/>
-      <c r="E380" s="1"/>
-      <c r="F380" s="1"/>
-      <c r="G380" s="18"/>
+      <c r="G380" s="1"/>
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
       <c r="J380" s="1"/>
-      <c r="K380" s="18"/>
+      <c r="K380" s="1"/>
       <c r="L380" s="1"/>
       <c r="M380" s="1"/>
       <c r="N380" s="1"/>
-      <c r="O380" s="18"/>
+      <c r="O380" s="1"/>
       <c r="P380" s="7"/>
       <c r="Q380" s="4"/>
       <c r="R380" s="1"/>
@@ -15678,20 +16010,22 @@
         <v>380</v>
       </c>
       <c r="B381" s="7"/>
-      <c r="C381" s="17"/>
+      <c r="C381" s="4"/>
       <c r="D381" s="9"/>
-      <c r="E381" s="9"/>
-      <c r="F381" s="9"/>
-      <c r="G381" s="20"/>
+      <c r="G381" s="9"/>
       <c r="H381" s="9"/>
       <c r="I381" s="9"/>
       <c r="J381" s="9"/>
-      <c r="K381" s="18"/>
-      <c r="L381" s="1"/>
-      <c r="M381" s="1"/>
-      <c r="N381" s="1"/>
-      <c r="O381" s="18"/>
-      <c r="P381" s="7"/>
+      <c r="K381" s="1"/>
+      <c r="L381" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M381" s="8"/>
+      <c r="N381" s="8"/>
+      <c r="O381" s="8"/>
+      <c r="P381" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="Q381" s="4"/>
       <c r="R381" s="1"/>
       <c r="S381" s="1"/>
@@ -15716,19 +16050,17 @@
         <v>381</v>
       </c>
       <c r="B382" s="7"/>
-      <c r="C382" s="17"/>
+      <c r="C382" s="4"/>
       <c r="D382" s="9"/>
-      <c r="E382" s="9"/>
-      <c r="F382" s="9"/>
-      <c r="G382" s="20"/>
+      <c r="G382" s="9"/>
       <c r="H382" s="9"/>
       <c r="I382" s="9"/>
       <c r="J382" s="9"/>
-      <c r="K382" s="18"/>
+      <c r="K382" s="1"/>
       <c r="L382" s="1"/>
       <c r="M382" s="1"/>
       <c r="N382" s="1"/>
-      <c r="O382" s="18"/>
+      <c r="O382" s="1"/>
       <c r="P382" s="7"/>
       <c r="Q382" s="4"/>
       <c r="R382" s="1"/>
@@ -15754,20 +16086,24 @@
         <v>382</v>
       </c>
       <c r="B383" s="7"/>
-      <c r="C383" s="17"/>
+      <c r="C383" s="4"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
-      <c r="G383" s="18"/>
+      <c r="G383" s="1"/>
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
       <c r="J383" s="1"/>
-      <c r="K383" s="18"/>
-      <c r="L383" s="1"/>
-      <c r="M383" s="1"/>
-      <c r="N383" s="1"/>
-      <c r="O383" s="18"/>
-      <c r="P383" s="7"/>
+      <c r="K383" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L383" s="8"/>
+      <c r="M383" s="8"/>
+      <c r="N383" s="8"/>
+      <c r="O383" s="8"/>
+      <c r="P383" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="Q383" s="4"/>
       <c r="R383" s="1"/>
       <c r="S383" s="1"/>
@@ -15792,19 +16128,19 @@
         <v>383</v>
       </c>
       <c r="B384" s="7"/>
-      <c r="C384" s="17"/>
+      <c r="C384" s="4"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
-      <c r="G384" s="18"/>
+      <c r="G384" s="1"/>
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
       <c r="J384" s="1"/>
-      <c r="K384" s="18"/>
+      <c r="K384" s="1"/>
       <c r="L384" s="1"/>
       <c r="M384" s="1"/>
       <c r="N384" s="1"/>
-      <c r="O384" s="18"/>
+      <c r="O384" s="1"/>
       <c r="P384" s="7"/>
       <c r="Q384" s="4"/>
       <c r="R384" s="1"/>
@@ -15830,20 +16166,24 @@
         <v>384</v>
       </c>
       <c r="B385" s="7"/>
-      <c r="C385" s="17"/>
+      <c r="C385" s="4"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
-      <c r="G385" s="18"/>
+      <c r="G385" s="1"/>
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
-      <c r="J385" s="1"/>
-      <c r="K385" s="18"/>
-      <c r="L385" s="1"/>
-      <c r="M385" s="1"/>
-      <c r="N385" s="1"/>
-      <c r="O385" s="18"/>
-      <c r="P385" s="7"/>
+      <c r="J385" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K385" s="8"/>
+      <c r="L385" s="8"/>
+      <c r="M385" s="8"/>
+      <c r="N385" s="8"/>
+      <c r="O385" s="8"/>
+      <c r="P385" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="Q385" s="4"/>
       <c r="R385" s="1"/>
       <c r="S385" s="1"/>
@@ -15868,17 +16208,19 @@
         <v>385</v>
       </c>
       <c r="B386" s="7"/>
-      <c r="C386" s="17"/>
+      <c r="C386" s="4"/>
+      <c r="D386" s="9"/>
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
-      <c r="G386" s="18"/>
+      <c r="G386" s="1"/>
       <c r="H386" s="1"/>
       <c r="I386" s="1"/>
       <c r="J386" s="1"/>
-      <c r="K386" s="18"/>
+      <c r="K386" s="1"/>
       <c r="L386" s="1"/>
       <c r="M386" s="1"/>
-      <c r="O386" s="18"/>
+      <c r="N386" s="9"/>
+      <c r="O386" s="1"/>
       <c r="P386" s="7"/>
       <c r="Q386" s="4"/>
       <c r="R386" s="1"/>
@@ -15904,20 +16246,24 @@
         <v>386</v>
       </c>
       <c r="B387" s="7"/>
-      <c r="C387" s="17"/>
+      <c r="C387" s="4"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
-      <c r="G387" s="18"/>
+      <c r="G387" s="1"/>
       <c r="H387" s="1"/>
-      <c r="I387" s="1"/>
-      <c r="J387" s="1"/>
-      <c r="K387" s="18"/>
-      <c r="L387" s="1"/>
-      <c r="M387" s="1"/>
-      <c r="N387" s="1"/>
-      <c r="O387" s="18"/>
-      <c r="P387" s="7"/>
+      <c r="I387" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J387" s="8"/>
+      <c r="K387" s="8"/>
+      <c r="L387" s="8"/>
+      <c r="M387" s="8"/>
+      <c r="N387" s="8"/>
+      <c r="O387" s="8"/>
+      <c r="P387" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="Q387" s="4"/>
       <c r="R387" s="1"/>
       <c r="S387" s="1"/>
@@ -15942,19 +16288,19 @@
         <v>387</v>
       </c>
       <c r="B388" s="7"/>
-      <c r="C388" s="17"/>
+      <c r="C388" s="4"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
-      <c r="G388" s="18"/>
+      <c r="G388" s="1"/>
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
       <c r="J388" s="1"/>
-      <c r="K388" s="18"/>
+      <c r="K388" s="1"/>
       <c r="L388" s="1"/>
       <c r="M388" s="1"/>
       <c r="N388" s="1"/>
-      <c r="O388" s="18"/>
+      <c r="O388" s="1"/>
       <c r="P388" s="7"/>
       <c r="Q388" s="4"/>
       <c r="R388" s="1"/>
@@ -15980,20 +16326,24 @@
         <v>388</v>
       </c>
       <c r="B389" s="7"/>
-      <c r="C389" s="17"/>
+      <c r="C389" s="4"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
-      <c r="G389" s="18"/>
-      <c r="H389" s="1"/>
-      <c r="I389" s="1"/>
-      <c r="J389" s="1"/>
-      <c r="K389" s="18"/>
-      <c r="L389" s="1"/>
-      <c r="M389" s="1"/>
-      <c r="N389" s="1"/>
-      <c r="O389" s="18"/>
-      <c r="P389" s="7"/>
+      <c r="G389" s="1"/>
+      <c r="H389" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I389" s="8"/>
+      <c r="J389" s="8"/>
+      <c r="K389" s="8"/>
+      <c r="L389" s="8"/>
+      <c r="M389" s="8"/>
+      <c r="N389" s="8"/>
+      <c r="O389" s="8"/>
+      <c r="P389" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="Q389" s="4"/>
       <c r="R389" s="1"/>
       <c r="S389" s="1"/>
@@ -16018,22 +16368,19 @@
         <v>389</v>
       </c>
       <c r="B390" s="7"/>
-      <c r="C390" s="17"/>
+      <c r="C390" s="4"/>
       <c r="D390" s="1"/>
-      <c r="E390" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="E390" s="1"/>
       <c r="F390" s="1"/>
-      <c r="G390" s="18"/>
+      <c r="G390" s="1"/>
       <c r="H390" s="1"/>
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
-      <c r="K390" s="18"/>
+      <c r="K390" s="1"/>
       <c r="L390" s="1"/>
-      <c r="M390" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O390" s="18"/>
+      <c r="M390" s="1"/>
+      <c r="N390" s="9"/>
+      <c r="O390" s="1"/>
       <c r="P390" s="7"/>
       <c r="Q390" s="4"/>
       <c r="R390" s="1"/>
@@ -16059,20 +16406,24 @@
         <v>390</v>
       </c>
       <c r="B391" s="7"/>
-      <c r="C391" s="17"/>
+      <c r="C391" s="4"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
-      <c r="G391" s="18"/>
-      <c r="H391" s="1"/>
-      <c r="I391" s="1"/>
-      <c r="J391" s="1"/>
-      <c r="K391" s="18"/>
-      <c r="L391" s="1"/>
-      <c r="M391" s="1"/>
-      <c r="N391" s="1"/>
-      <c r="O391" s="18"/>
-      <c r="P391" s="7"/>
+      <c r="G391" s="1"/>
+      <c r="H391" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I391" s="8"/>
+      <c r="J391" s="8"/>
+      <c r="K391" s="8"/>
+      <c r="L391" s="8"/>
+      <c r="M391" s="8"/>
+      <c r="N391" s="8"/>
+      <c r="O391" s="8"/>
+      <c r="P391" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="Q391" s="4"/>
       <c r="R391" s="1"/>
       <c r="S391" s="1"/>
@@ -16097,21 +16448,19 @@
         <v>391</v>
       </c>
       <c r="B392" s="7"/>
-      <c r="C392" s="17"/>
+      <c r="C392" s="4"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
-      <c r="G392" s="18"/>
+      <c r="G392" s="1"/>
       <c r="H392" s="1"/>
-      <c r="I392" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="I392" s="1"/>
       <c r="J392" s="1"/>
-      <c r="K392" s="18"/>
+      <c r="K392" s="1"/>
       <c r="L392" s="1"/>
       <c r="M392" s="1"/>
       <c r="N392" s="1"/>
-      <c r="O392" s="18"/>
+      <c r="O392" s="1"/>
       <c r="P392" s="7"/>
       <c r="Q392" s="4"/>
       <c r="R392" s="1"/>
@@ -16137,20 +16486,24 @@
         <v>392</v>
       </c>
       <c r="B393" s="7"/>
-      <c r="C393" s="17"/>
+      <c r="C393" s="4"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
-      <c r="G393" s="18"/>
-      <c r="H393" s="1"/>
-      <c r="I393" s="1"/>
-      <c r="J393" s="1"/>
-      <c r="K393" s="18"/>
-      <c r="L393" s="1"/>
-      <c r="M393" s="1"/>
-      <c r="N393" s="1"/>
-      <c r="O393" s="18"/>
-      <c r="P393" s="7"/>
+      <c r="G393" s="1"/>
+      <c r="H393" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I393" s="8"/>
+      <c r="J393" s="8"/>
+      <c r="K393" s="8"/>
+      <c r="L393" s="8"/>
+      <c r="M393" s="8"/>
+      <c r="N393" s="8"/>
+      <c r="O393" s="8"/>
+      <c r="P393" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="Q393" s="4"/>
       <c r="R393" s="1"/>
       <c r="S393" s="1"/>
@@ -16175,27 +16528,21 @@
         <v>393</v>
       </c>
       <c r="B394" s="7"/>
-      <c r="C394" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="C394" s="4"/>
       <c r="D394" s="1"/>
-      <c r="E394" s="1"/>
+      <c r="E394" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F394" s="1"/>
-      <c r="G394" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="G394" s="1"/>
       <c r="H394" s="1"/>
       <c r="I394" s="1"/>
       <c r="J394" s="1"/>
-      <c r="K394" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="K394" s="1"/>
       <c r="L394" s="1"/>
       <c r="M394" s="1"/>
       <c r="N394" s="1"/>
-      <c r="O394" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="O394" s="1"/>
       <c r="P394" s="7"/>
       <c r="Q394" s="4"/>
       <c r="R394" s="1"/>
@@ -16222,19 +16569,26 @@
       </c>
       <c r="B395" s="7"/>
       <c r="C395" s="4"/>
-      <c r="D395" s="1"/>
-      <c r="E395" s="1"/>
-      <c r="F395" s="1"/>
+      <c r="D395" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G395" s="1"/>
-      <c r="H395" s="1"/>
-      <c r="I395" s="1"/>
-      <c r="J395" s="1"/>
-      <c r="K395" s="1"/>
-      <c r="L395" s="1"/>
-      <c r="M395" s="1"/>
-      <c r="N395" s="1"/>
-      <c r="O395" s="1"/>
-      <c r="P395" s="7"/>
+      <c r="H395" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I395" s="8"/>
+      <c r="J395" s="8"/>
+      <c r="K395" s="8"/>
+      <c r="L395" s="8"/>
+      <c r="M395" s="8"/>
+      <c r="N395" s="8"/>
+      <c r="O395" s="8"/>
+      <c r="P395" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="Q395" s="4"/>
       <c r="R395" s="1"/>
       <c r="S395" s="1"/>
@@ -16298,19 +16652,27 @@
       </c>
       <c r="B397" s="7"/>
       <c r="C397" s="4"/>
-      <c r="D397" s="1"/>
-      <c r="E397" s="1"/>
-      <c r="F397" s="1"/>
+      <c r="D397" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E397" s="17"/>
+      <c r="F397" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G397" s="1"/>
-      <c r="H397" s="1"/>
-      <c r="I397" s="1"/>
-      <c r="J397" s="1"/>
-      <c r="K397" s="1"/>
-      <c r="L397" s="1"/>
-      <c r="M397" s="1"/>
-      <c r="N397" s="1"/>
-      <c r="O397" s="1"/>
-      <c r="P397" s="7"/>
+      <c r="H397" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I397" s="8"/>
+      <c r="J397" s="8"/>
+      <c r="K397" s="8"/>
+      <c r="L397" s="8"/>
+      <c r="M397" s="8"/>
+      <c r="N397" s="8"/>
+      <c r="O397" s="8"/>
+      <c r="P397" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="Q397" s="4"/>
       <c r="R397" s="1"/>
       <c r="S397" s="1"/>
@@ -16337,21 +16699,15 @@
       <c r="B398" s="7"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
-      <c r="E398" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="E398" s="1"/>
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
-      <c r="I398" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="I398" s="1"/>
       <c r="J398" s="1"/>
       <c r="K398" s="1"/>
       <c r="L398" s="1"/>
-      <c r="M398" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="M398" s="1"/>
       <c r="N398" s="1"/>
       <c r="O398" s="1"/>
       <c r="P398" s="7"/>
@@ -16378,21 +16734,25 @@
       <c r="A399" s="10">
         <v>398</v>
       </c>
-      <c r="B399" s="7"/>
-      <c r="C399" s="4"/>
-      <c r="D399" s="1"/>
-      <c r="E399" s="18"/>
-      <c r="F399" s="1"/>
-      <c r="G399" s="1"/>
-      <c r="H399" s="1"/>
-      <c r="I399" s="18"/>
-      <c r="J399" s="1"/>
-      <c r="K399" s="1"/>
-      <c r="L399" s="1"/>
-      <c r="M399" s="18"/>
-      <c r="N399" s="1"/>
-      <c r="O399" s="1"/>
-      <c r="P399" s="7"/>
+      <c r="B399" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C399" s="19"/>
+      <c r="D399" s="8"/>
+      <c r="E399" s="8"/>
+      <c r="F399" s="8"/>
+      <c r="G399" s="8"/>
+      <c r="H399" s="8"/>
+      <c r="I399" s="8"/>
+      <c r="J399" s="8"/>
+      <c r="K399" s="8"/>
+      <c r="L399" s="8"/>
+      <c r="M399" s="8"/>
+      <c r="N399" s="8"/>
+      <c r="O399" s="8"/>
+      <c r="P399" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="Q399" s="4"/>
       <c r="R399" s="1"/>
       <c r="S399" s="1"/>
@@ -16419,15 +16779,15 @@
       <c r="B400" s="7"/>
       <c r="C400" s="4"/>
       <c r="D400" s="1"/>
-      <c r="E400" s="18"/>
+      <c r="E400" s="1"/>
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
-      <c r="I400" s="18"/>
+      <c r="I400" s="1"/>
       <c r="J400" s="1"/>
       <c r="K400" s="1"/>
       <c r="L400" s="1"/>
-      <c r="M400" s="18"/>
+      <c r="M400" s="1"/>
       <c r="N400" s="1"/>
       <c r="O400" s="1"/>
       <c r="P400" s="7"/>
@@ -16454,21 +16814,29 @@
       <c r="A401" s="10">
         <v>400</v>
       </c>
-      <c r="B401" s="7"/>
-      <c r="C401" s="4"/>
-      <c r="D401" s="1"/>
-      <c r="E401" s="18"/>
+      <c r="B401" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C401" s="19"/>
+      <c r="D401" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E401" s="1"/>
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
-      <c r="I401" s="18"/>
+      <c r="I401" s="1"/>
       <c r="J401" s="1"/>
       <c r="K401" s="1"/>
-      <c r="L401" s="1"/>
-      <c r="M401" s="18"/>
-      <c r="N401" s="1"/>
-      <c r="O401" s="14"/>
-      <c r="P401" s="7"/>
+      <c r="L401" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M401" s="8"/>
+      <c r="N401" s="8"/>
+      <c r="O401" s="8"/>
+      <c r="P401" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="Q401" s="4"/>
       <c r="R401" s="1"/>
       <c r="S401" s="1"/>
@@ -16495,15 +16863,15 @@
       <c r="B402" s="7"/>
       <c r="C402" s="4"/>
       <c r="D402" s="1"/>
-      <c r="E402" s="18"/>
+      <c r="E402" s="1"/>
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
-      <c r="I402" s="18"/>
+      <c r="I402" s="1"/>
       <c r="J402" s="1"/>
       <c r="K402" s="1"/>
       <c r="L402" s="1"/>
-      <c r="M402" s="18"/>
+      <c r="M402" s="1"/>
       <c r="N402" s="1"/>
       <c r="O402" s="14"/>
       <c r="P402" s="7"/>
@@ -16530,21 +16898,29 @@
       <c r="A403" s="10">
         <v>402</v>
       </c>
-      <c r="B403" s="7"/>
-      <c r="C403" s="4"/>
-      <c r="D403" s="1"/>
-      <c r="E403" s="18"/>
+      <c r="B403" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C403" s="19"/>
+      <c r="D403" s="8"/>
+      <c r="E403" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
-      <c r="I403" s="18"/>
+      <c r="I403" s="1"/>
       <c r="J403" s="1"/>
       <c r="K403" s="1"/>
       <c r="L403" s="1"/>
-      <c r="M403" s="18"/>
-      <c r="N403" s="1"/>
-      <c r="O403" s="14"/>
-      <c r="P403" s="7"/>
+      <c r="M403" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N403" s="8"/>
+      <c r="O403" s="8"/>
+      <c r="P403" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="Q403" s="4"/>
       <c r="R403" s="1"/>
       <c r="S403" s="1"/>
@@ -16571,15 +16947,15 @@
       <c r="B404" s="7"/>
       <c r="C404" s="4"/>
       <c r="D404" s="1"/>
-      <c r="E404" s="18"/>
+      <c r="E404" s="1"/>
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
-      <c r="I404" s="18"/>
+      <c r="I404" s="1"/>
       <c r="J404" s="1"/>
       <c r="K404" s="1"/>
       <c r="L404" s="1"/>
-      <c r="M404" s="18"/>
+      <c r="M404" s="1"/>
       <c r="N404" s="1"/>
       <c r="O404" s="14"/>
       <c r="P404" s="7"/>
@@ -16606,21 +16982,30 @@
       <c r="A405" s="10">
         <v>404</v>
       </c>
-      <c r="B405" s="7"/>
-      <c r="C405" s="4"/>
-      <c r="D405" s="1"/>
-      <c r="E405" s="18"/>
-      <c r="F405" s="1"/>
+      <c r="B405" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C405" s="19"/>
+      <c r="D405" s="8"/>
+      <c r="E405" s="8"/>
+      <c r="F405" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="G405" s="1"/>
-      <c r="H405" s="1"/>
-      <c r="I405" s="18"/>
+      <c r="I405" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="J405" s="1"/>
       <c r="K405" s="1"/>
       <c r="L405" s="1"/>
-      <c r="M405" s="18"/>
-      <c r="N405" s="1"/>
-      <c r="O405" s="14"/>
-      <c r="P405" s="7"/>
+      <c r="M405" s="1"/>
+      <c r="N405" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O405" s="8"/>
+      <c r="P405" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="Q405" s="4"/>
       <c r="R405" s="1"/>
       <c r="S405" s="1"/>
@@ -16647,15 +17032,15 @@
       <c r="B406" s="7"/>
       <c r="C406" s="4"/>
       <c r="D406" s="1"/>
-      <c r="E406" s="18"/>
+      <c r="E406" s="1"/>
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
-      <c r="I406" s="18"/>
+      <c r="I406" s="1"/>
       <c r="J406" s="1"/>
       <c r="K406" s="1"/>
       <c r="L406" s="1"/>
-      <c r="M406" s="18"/>
+      <c r="M406" s="1"/>
       <c r="N406" s="1"/>
       <c r="O406" s="14"/>
       <c r="P406" s="7"/>
@@ -16682,18 +17067,23 @@
       <c r="A407" s="10">
         <v>406</v>
       </c>
-      <c r="B407" s="7"/>
-      <c r="C407" s="4"/>
-      <c r="D407" s="1"/>
-      <c r="E407" s="18"/>
-      <c r="F407" s="1"/>
-      <c r="G407" s="1"/>
+      <c r="B407" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C407" s="19"/>
+      <c r="D407" s="8"/>
+      <c r="E407" s="8"/>
+      <c r="F407" s="8"/>
+      <c r="G407" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H407" s="1"/>
-      <c r="I407" s="18"/>
-      <c r="J407" s="1"/>
+      <c r="J407" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="K407" s="1"/>
       <c r="L407" s="1"/>
-      <c r="M407" s="18"/>
+      <c r="M407" s="1"/>
       <c r="N407" s="1"/>
       <c r="O407" s="14"/>
       <c r="P407" s="7"/>
@@ -16723,15 +17113,15 @@
       <c r="B408" s="7"/>
       <c r="C408" s="4"/>
       <c r="D408" s="1"/>
-      <c r="E408" s="18"/>
+      <c r="E408" s="1"/>
       <c r="F408" s="1"/>
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
-      <c r="I408" s="18"/>
+      <c r="I408" s="1"/>
       <c r="J408" s="1"/>
       <c r="K408" s="1"/>
       <c r="L408" s="1"/>
-      <c r="M408" s="18"/>
+      <c r="M408" s="1"/>
       <c r="N408" s="1"/>
       <c r="O408" s="14"/>
       <c r="P408" s="7"/>
@@ -16758,28 +17148,26 @@
       <c r="A409" s="10">
         <v>408</v>
       </c>
-      <c r="B409" s="7"/>
-      <c r="C409" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D409" s="1"/>
-      <c r="E409" s="18"/>
-      <c r="F409" s="1"/>
-      <c r="G409" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H409" s="1"/>
-      <c r="I409" s="18"/>
+      <c r="B409" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C409" s="8"/>
+      <c r="D409" s="8"/>
+      <c r="E409" s="8"/>
+      <c r="F409" s="8"/>
+      <c r="G409" s="8"/>
+      <c r="H409" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I409" s="1"/>
       <c r="J409" s="1"/>
       <c r="K409" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L409" s="1"/>
-      <c r="M409" s="18"/>
+      <c r="M409" s="1"/>
       <c r="N409" s="1"/>
-      <c r="O409" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="O409" s="1"/>
       <c r="P409" s="7"/>
       <c r="Q409" s="4"/>
       <c r="R409" s="1"/>
@@ -16807,15 +17195,15 @@
       <c r="B410" s="7"/>
       <c r="C410" s="4"/>
       <c r="D410" s="1"/>
-      <c r="E410" s="18"/>
+      <c r="E410" s="1"/>
       <c r="F410" s="1"/>
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
-      <c r="I410" s="18"/>
+      <c r="I410" s="1"/>
       <c r="J410" s="1"/>
       <c r="K410" s="1"/>
       <c r="L410" s="1"/>
-      <c r="M410" s="18"/>
+      <c r="M410" s="1"/>
       <c r="N410" s="1"/>
       <c r="O410" s="14"/>
       <c r="P410" s="7"/>
@@ -16842,18 +17230,24 @@
       <c r="A411" s="10">
         <v>410</v>
       </c>
-      <c r="B411" s="7"/>
-      <c r="C411" s="4"/>
-      <c r="D411" s="1"/>
-      <c r="E411" s="18"/>
-      <c r="F411" s="1"/>
-      <c r="G411" s="1"/>
-      <c r="H411" s="1"/>
-      <c r="I411" s="18"/>
+      <c r="B411" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C411" s="19"/>
+      <c r="D411" s="8"/>
+      <c r="E411" s="8"/>
+      <c r="F411" s="8"/>
+      <c r="G411" s="8"/>
+      <c r="H411" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I411" s="1"/>
       <c r="J411" s="1"/>
-      <c r="K411" s="1"/>
+      <c r="K411" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="L411" s="1"/>
-      <c r="M411" s="18"/>
+      <c r="M411" s="1"/>
       <c r="N411" s="1"/>
       <c r="O411" s="14"/>
       <c r="P411" s="7"/>
@@ -16883,15 +17277,15 @@
       <c r="B412" s="7"/>
       <c r="C412" s="4"/>
       <c r="D412" s="1"/>
-      <c r="E412" s="18"/>
+      <c r="E412" s="1"/>
       <c r="F412" s="1"/>
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
-      <c r="I412" s="18"/>
+      <c r="I412" s="1"/>
       <c r="J412" s="1"/>
       <c r="K412" s="1"/>
       <c r="L412" s="1"/>
-      <c r="M412" s="18"/>
+      <c r="M412" s="1"/>
       <c r="N412" s="1"/>
       <c r="O412" s="14"/>
       <c r="P412" s="7"/>
@@ -16918,24 +17312,24 @@
       <c r="A413" s="10">
         <v>412</v>
       </c>
-      <c r="B413" s="7"/>
-      <c r="C413" s="1"/>
-      <c r="D413" s="1"/>
-      <c r="E413" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F413" s="1"/>
-      <c r="G413" s="1"/>
-      <c r="H413" s="1"/>
-      <c r="I413" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="B413" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C413" s="8"/>
+      <c r="D413" s="8"/>
+      <c r="E413" s="8"/>
+      <c r="F413" s="8"/>
+      <c r="G413" s="8"/>
+      <c r="H413" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I413" s="1"/>
       <c r="J413" s="1"/>
-      <c r="K413" s="1"/>
+      <c r="K413" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="L413" s="1"/>
-      <c r="M413" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="M413" s="1"/>
       <c r="N413" s="1"/>
       <c r="O413" s="14"/>
       <c r="P413" s="7"/>
@@ -17229,9 +17623,9 @@
         <v>420</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C421" s="30"/>
+        <v>33</v>
+      </c>
+      <c r="C421" s="22"/>
       <c r="D421" s="13"/>
       <c r="E421" s="13"/>
       <c r="F421" s="13"/>
@@ -17243,9 +17637,9 @@
       <c r="L421" s="13"/>
       <c r="M421" s="13"/>
       <c r="N421" s="13"/>
-      <c r="O421" s="31"/>
+      <c r="O421" s="23"/>
       <c r="P421" s="7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="Q421" s="4"/>
       <c r="R421" s="1"/>
@@ -18244,7 +18638,7 @@
       <c r="P469" s="7"/>
     </row>
     <row r="470" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A470" s="32">
+      <c r="A470" s="24">
         <v>469</v>
       </c>
       <c r="B470" s="7"/>
